--- a/GBP Bonds/Master List of Bonds/Electrical Companies.xlsx
+++ b/GBP Bonds/Master List of Bonds/Electrical Companies.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renea\OneDrive\Documents\University of Bath\13. Dissertation\Data\GBP Bonds\Master List of Bonds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FEE623-50CC-49C4-97FB-0A78DE2AA96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D47F4E-A8DE-436C-A267-AD147FE990D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search Results" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Search Results'!$A$1:$AY$85</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="442">
   <si>
     <t>Issuer</t>
   </si>
@@ -352,9 +355,6 @@
     <t>2012-07-17</t>
   </si>
   <si>
-    <t>National Grid Electricity Distribution (South West) PLC</t>
-  </si>
-  <si>
     <t>NGNAGR</t>
   </si>
   <si>
@@ -382,9 +382,6 @@
     <t>2003-06-07</t>
   </si>
   <si>
-    <t>National Grid Electricity Transmission PLC</t>
-  </si>
-  <si>
     <t>NGHKOL</t>
   </si>
   <si>
@@ -412,9 +409,6 @@
     <t>2013-09-20</t>
   </si>
   <si>
-    <t>National Grid Electricity Distribution (West Midlands) PLC</t>
-  </si>
-  <si>
     <t>NGNGD</t>
   </si>
   <si>
@@ -502,9 +496,6 @@
     <t>2013-03-13</t>
   </si>
   <si>
-    <t>National Grid Electricity Distribution (South Wales) PLC</t>
-  </si>
-  <si>
     <t>NGNGE</t>
   </si>
   <si>
@@ -925,9 +916,6 @@
     <t>2023-03-31</t>
   </si>
   <si>
-    <t>National Grid Electricity Distribution (East Midlands) PLC</t>
-  </si>
-  <si>
     <t>NGNTNL</t>
   </si>
   <si>
@@ -1358,6 +1346,9 @@
   </si>
   <si>
     <t>NL012535139</t>
+  </si>
+  <si>
+    <t>National Grid PLC</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1925,25 +1916,25 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1">
-        <v>3.4940000000000002</v>
+        <v>4.375</v>
       </c>
       <c r="D2" s="2">
-        <v>45578</v>
+        <v>47190</v>
       </c>
       <c r="E2" s="2">
-        <v>36812</v>
+        <v>40981</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -1961,7 +1952,7 @@
         <v>57</v>
       </c>
       <c r="M2" s="3">
-        <v>174999999.78356999</v>
+        <v>749999999.76408005</v>
       </c>
       <c r="N2" t="s">
         <v>58</v>
@@ -1982,7 +1973,7 @@
         <v>60</v>
       </c>
       <c r="T2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
         <v>61</v>
@@ -1997,28 +1988,28 @@
         <v>62</v>
       </c>
       <c r="Y2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AA2" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="AB2" t="s">
         <v>19</v>
       </c>
       <c r="AC2" s="4">
-        <v>-49.393236000000002</v>
+        <v>189.77106599999999</v>
       </c>
       <c r="AD2" s="4">
-        <v>0.5</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="AE2" t="s">
         <v>19</v>
       </c>
       <c r="AF2" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="s">
         <v>19</v>
@@ -2060,45 +2051,45 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="AU2" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="AV2" s="4">
-        <v>1.717033</v>
+        <v>6.1287669999999999</v>
       </c>
       <c r="AW2" t="s">
         <v>69</v>
       </c>
       <c r="AX2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AY2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1">
-        <v>0.25</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>45701</v>
+        <v>48841</v>
       </c>
       <c r="E3" s="2">
-        <v>42048</v>
+        <v>39710</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="H3" t="s">
         <v>53</v>
@@ -2116,7 +2107,7 @@
         <v>57</v>
       </c>
       <c r="M3" s="3">
-        <v>24999999.507989999</v>
+        <v>769999999.20908999</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
@@ -2137,7 +2128,7 @@
         <v>60</v>
       </c>
       <c r="T3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" t="s">
         <v>61</v>
@@ -2152,28 +2143,28 @@
         <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AA3" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AB3" t="s">
         <v>19</v>
       </c>
       <c r="AC3" s="4">
-        <v>-181.08698799999999</v>
+        <v>194.66188199999999</v>
       </c>
       <c r="AD3" s="4">
-        <v>9.8000000000000004E-2</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="AE3" t="s">
         <v>19</v>
       </c>
       <c r="AF3" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG3" t="s">
         <v>19</v>
@@ -2203,7 +2194,7 @@
         <v>19</v>
       </c>
       <c r="AP3" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="s">
         <v>19</v>
@@ -2215,45 +2206,45 @@
         <v>62</v>
       </c>
       <c r="AT3" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AU3" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AV3" s="4">
-        <v>2.0516299999999998</v>
+        <v>10.649315</v>
       </c>
       <c r="AW3" t="s">
         <v>69</v>
       </c>
       <c r="AX3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AY3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1">
-        <v>0.25</v>
+        <v>4.25</v>
       </c>
       <c r="D4" s="2">
-        <v>45701</v>
+        <v>52852</v>
       </c>
       <c r="E4" s="2">
-        <v>42048</v>
+        <v>41164</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="G4" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
@@ -2271,7 +2262,7 @@
         <v>57</v>
       </c>
       <c r="M4" s="3">
-        <v>39999999.696929999</v>
+        <v>549999999.66560996</v>
       </c>
       <c r="N4" t="s">
         <v>58</v>
@@ -2292,7 +2283,7 @@
         <v>60</v>
       </c>
       <c r="T4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4" t="s">
         <v>61</v>
@@ -2307,22 +2298,22 @@
         <v>62</v>
       </c>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AA4" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AB4" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>19</v>
+      <c r="AC4" s="4">
+        <v>185.56971899999999</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1.069</v>
       </c>
       <c r="AE4" t="s">
         <v>19</v>
@@ -2358,7 +2349,7 @@
         <v>19</v>
       </c>
       <c r="AP4" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="s">
         <v>19</v>
@@ -2370,45 +2361,45 @@
         <v>62</v>
       </c>
       <c r="AT4" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AU4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>19</v>
+        <v>303</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>21.630137000000001</v>
       </c>
       <c r="AW4" t="s">
         <v>69</v>
       </c>
       <c r="AX4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AY4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="C5" s="1">
-        <v>8.5</v>
+        <v>9.07</v>
       </c>
       <c r="D5" s="2">
-        <v>45747</v>
+        <v>46022</v>
       </c>
       <c r="E5" s="2">
-        <v>34885</v>
+        <v>37008</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="G5" t="s">
-        <v>367</v>
+        <v>440</v>
       </c>
       <c r="H5" t="s">
         <v>53</v>
@@ -2426,10 +2417,10 @@
         <v>57</v>
       </c>
       <c r="M5" s="3">
-        <v>199999999.29155999</v>
+        <v>177799999.27013999</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>352</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -2447,7 +2438,7 @@
         <v>60</v>
       </c>
       <c r="T5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" t="s">
         <v>61</v>
@@ -2462,10 +2453,10 @@
         <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="Z5" t="s">
-        <v>86</v>
+        <v>354</v>
       </c>
       <c r="AA5" t="s">
         <v>75</v>
@@ -2473,20 +2464,20 @@
       <c r="AB5" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="4">
-        <v>174.61370099999999</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>0.36899999999999999</v>
+      <c r="AC5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>19</v>
       </c>
       <c r="AE5" t="s">
         <v>19</v>
       </c>
       <c r="AF5" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="s">
         <v>19</v>
@@ -2495,16 +2486,16 @@
         <v>19</v>
       </c>
       <c r="AJ5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="s">
         <v>19</v>
@@ -2513,7 +2504,7 @@
         <v>19</v>
       </c>
       <c r="AP5" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="s">
         <v>19</v>
@@ -2525,22 +2516,22 @@
         <v>62</v>
       </c>
       <c r="AT5" t="s">
-        <v>87</v>
+        <v>355</v>
       </c>
       <c r="AU5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV5" s="4">
-        <v>2.1833330000000002</v>
+        <v>356</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>19</v>
       </c>
       <c r="AW5" t="s">
         <v>89</v>
       </c>
       <c r="AX5" t="s">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AY5" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.3">
@@ -2551,19 +2542,19 @@
         <v>81</v>
       </c>
       <c r="C6" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="2">
-        <v>45937</v>
+        <v>45701</v>
       </c>
       <c r="E6" s="2">
-        <v>42101</v>
+        <v>42048</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
@@ -2581,7 +2572,7 @@
         <v>57</v>
       </c>
       <c r="M6" s="3">
-        <v>34999999.633950002</v>
+        <v>39999999.696929999</v>
       </c>
       <c r="N6" t="s">
         <v>58</v>
@@ -2628,17 +2619,17 @@
       <c r="AB6" t="s">
         <v>19</v>
       </c>
-      <c r="AC6" s="4">
-        <v>-110.121397</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>0.252</v>
+      <c r="AC6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>19</v>
       </c>
       <c r="AE6" t="s">
         <v>19</v>
       </c>
       <c r="AF6" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="s">
         <v>19</v>
@@ -2680,13 +2671,13 @@
         <v>62</v>
       </c>
       <c r="AT6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AU6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV6" s="4">
-        <v>2.6978019999999998</v>
+        <v>77</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>19</v>
       </c>
       <c r="AW6" t="s">
         <v>69</v>
@@ -2700,25 +2691,25 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1">
-        <v>8.875</v>
+        <v>8.5</v>
       </c>
       <c r="D7" s="2">
-        <v>46106</v>
+        <v>45747</v>
       </c>
       <c r="E7" s="2">
-        <v>34914</v>
+        <v>34885</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H7" t="s">
         <v>53</v>
@@ -2736,7 +2727,7 @@
         <v>57</v>
       </c>
       <c r="M7" s="3">
-        <v>449999999.21292001</v>
+        <v>199999999.29155999</v>
       </c>
       <c r="N7" t="s">
         <v>58</v>
@@ -2784,19 +2775,19 @@
         <v>19</v>
       </c>
       <c r="AC7" s="4">
-        <v>141.48430200000001</v>
+        <v>174.61370099999999</v>
       </c>
       <c r="AD7" s="4">
-        <v>0.33500000000000002</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="AE7" t="s">
         <v>19</v>
       </c>
       <c r="AF7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AH7" t="s">
         <v>19</v>
@@ -2805,16 +2796,16 @@
         <v>19</v>
       </c>
       <c r="AJ7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AL7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AM7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AN7" t="s">
         <v>19</v>
@@ -2823,7 +2814,7 @@
         <v>19</v>
       </c>
       <c r="AP7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ7" t="s">
         <v>19</v>
@@ -2835,63 +2826,63 @@
         <v>62</v>
       </c>
       <c r="AT7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="AU7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AV7" s="4">
-        <v>3.1666669999999999</v>
+        <v>2.1833330000000002</v>
       </c>
       <c r="AW7" t="s">
         <v>89</v>
       </c>
       <c r="AX7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AY7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1">
-        <v>8.875</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>46106</v>
+        <v>45937</v>
       </c>
       <c r="E8" s="2">
-        <v>34914</v>
+        <v>42101</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
         <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
         <v>57</v>
       </c>
       <c r="M8" s="3">
-        <v>449999999.21292001</v>
+        <v>34999999.633950002</v>
       </c>
       <c r="N8" t="s">
         <v>58</v>
@@ -2912,7 +2903,7 @@
         <v>60</v>
       </c>
       <c r="T8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" t="s">
         <v>61</v>
@@ -2939,16 +2930,16 @@
         <v>19</v>
       </c>
       <c r="AC8" s="4">
-        <v>200.83061000000001</v>
+        <v>-110.121397</v>
       </c>
       <c r="AD8" s="4">
-        <v>0.312</v>
+        <v>0.252</v>
       </c>
       <c r="AE8" t="s">
         <v>19</v>
       </c>
       <c r="AF8" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG8" t="s">
         <v>19</v>
@@ -2978,7 +2969,7 @@
         <v>19</v>
       </c>
       <c r="AP8" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ8" t="s">
         <v>19</v>
@@ -2990,16 +2981,16 @@
         <v>62</v>
       </c>
       <c r="AT8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AU8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AV8" s="4">
-        <v>3.1666669999999999</v>
+        <v>2.6978019999999998</v>
       </c>
       <c r="AW8" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="AX8" t="s">
         <v>78</v>
@@ -3010,25 +3001,25 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1">
-        <v>5.5</v>
+        <v>2.125</v>
       </c>
       <c r="D9" s="2">
-        <v>46178</v>
+        <v>48908</v>
       </c>
       <c r="E9" s="2">
-        <v>37777</v>
+        <v>43794</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="H9" t="s">
         <v>53</v>
@@ -3046,7 +3037,7 @@
         <v>57</v>
       </c>
       <c r="M9" s="3">
-        <v>299999999.74425</v>
+        <v>249999999.92136002</v>
       </c>
       <c r="N9" t="s">
         <v>58</v>
@@ -3094,47 +3085,47 @@
         <v>19</v>
       </c>
       <c r="AC9" s="4">
-        <v>125.879903</v>
+        <v>128.875452</v>
       </c>
       <c r="AD9" s="4">
-        <v>0.44</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="AE9" t="s">
         <v>19</v>
       </c>
       <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="s">
         <v>66</v>
       </c>
-      <c r="AG9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>19</v>
-      </c>
       <c r="AQ9" t="s">
         <v>19</v>
       </c>
@@ -3145,13 +3136,13 @@
         <v>62</v>
       </c>
       <c r="AT9" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="AU9" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="AV9" s="4">
-        <v>3.3589039999999999</v>
+        <v>10.832877</v>
       </c>
       <c r="AW9" t="s">
         <v>69</v>
@@ -3165,25 +3156,25 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1">
-        <v>5.875</v>
+        <v>1.875</v>
       </c>
       <c r="D10" s="2">
-        <v>46220</v>
+        <v>49461</v>
       </c>
       <c r="E10" s="2">
-        <v>40742</v>
+        <v>43983</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="G10" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="H10" t="s">
         <v>53</v>
@@ -3201,7 +3192,7 @@
         <v>57</v>
       </c>
       <c r="M10" s="3">
-        <v>349999999.56713998</v>
+        <v>299999999.74425</v>
       </c>
       <c r="N10" t="s">
         <v>58</v>
@@ -3246,13 +3237,13 @@
         <v>75</v>
       </c>
       <c r="AB10" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AC10" s="4">
-        <v>141.433155</v>
+        <v>115.77385700000001</v>
       </c>
       <c r="AD10" s="4">
-        <v>0.32900000000000001</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="AE10" t="s">
         <v>19</v>
@@ -3288,25 +3279,25 @@
         <v>19</v>
       </c>
       <c r="AP10" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ10" t="s">
         <v>19</v>
       </c>
       <c r="AR10" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AS10" t="s">
         <v>62</v>
       </c>
       <c r="AT10" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="AU10" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="AV10" s="4">
-        <v>3.473973</v>
+        <v>12.347944999999999</v>
       </c>
       <c r="AW10" t="s">
         <v>69</v>
@@ -3320,22 +3311,22 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1">
-        <v>5.875</v>
+        <v>6.25</v>
       </c>
       <c r="D11" s="2">
-        <v>46471</v>
+        <v>46903</v>
       </c>
       <c r="E11" s="2">
-        <v>37705</v>
+        <v>39598</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
         <v>373</v>
@@ -3350,13 +3341,13 @@
         <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
         <v>57</v>
       </c>
       <c r="M11" s="3">
-        <v>249999999.92136002</v>
+        <v>499999999.84272003</v>
       </c>
       <c r="N11" t="s">
         <v>58</v>
@@ -3404,10 +3395,10 @@
         <v>19</v>
       </c>
       <c r="AC11" s="4">
-        <v>142.70972900000001</v>
+        <v>191.476122</v>
       </c>
       <c r="AD11" s="4">
-        <v>0.50900000000000001</v>
+        <v>0.502</v>
       </c>
       <c r="AE11" t="s">
         <v>19</v>
@@ -3455,45 +3446,45 @@
         <v>62</v>
       </c>
       <c r="AT11" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AU11" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="AV11" s="4">
-        <v>4.1616439999999999</v>
+        <v>5.3424659999999999</v>
       </c>
       <c r="AW11" t="s">
         <v>69</v>
       </c>
       <c r="AX11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AY11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1">
-        <v>6.125</v>
+        <v>5.875</v>
       </c>
       <c r="D12" s="2">
-        <v>46545</v>
+        <v>48047</v>
       </c>
       <c r="E12" s="2">
-        <v>37414</v>
+        <v>37090</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="H12" t="s">
         <v>53</v>
@@ -3511,7 +3502,7 @@
         <v>57</v>
       </c>
       <c r="M12" s="3">
-        <v>299999999.74425</v>
+        <v>649999999.31139004</v>
       </c>
       <c r="N12" t="s">
         <v>58</v>
@@ -3559,10 +3550,10 @@
         <v>19</v>
       </c>
       <c r="AC12" s="4">
-        <v>129.635434</v>
+        <v>197.90276299999999</v>
       </c>
       <c r="AD12" s="4">
-        <v>0.51</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="AE12" t="s">
         <v>19</v>
@@ -3610,45 +3601,45 @@
         <v>62</v>
       </c>
       <c r="AT12" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="AU12" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="AV12" s="4">
-        <v>4.3643840000000003</v>
+        <v>8.4767119999999991</v>
       </c>
       <c r="AW12" t="s">
         <v>69</v>
       </c>
       <c r="AX12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AY12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>6.125</v>
       </c>
       <c r="D13" s="2">
-        <v>46546</v>
+        <v>49097</v>
       </c>
       <c r="E13" s="2">
-        <v>41068</v>
+        <v>39966</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="G13" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="H13" t="s">
         <v>53</v>
@@ -3666,7 +3657,7 @@
         <v>57</v>
       </c>
       <c r="M13" s="3">
-        <v>574999999.98051</v>
+        <v>1499999999.5281601</v>
       </c>
       <c r="N13" t="s">
         <v>58</v>
@@ -3714,16 +3705,16 @@
         <v>19</v>
       </c>
       <c r="AC13" s="4">
-        <v>150.654011</v>
+        <v>205.68975499999999</v>
       </c>
       <c r="AD13" s="4">
-        <v>0.46</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="AE13" t="s">
         <v>19</v>
       </c>
       <c r="AF13" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG13" t="s">
         <v>19</v>
@@ -3765,63 +3756,63 @@
         <v>62</v>
       </c>
       <c r="AT13" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="AU13" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="AV13" s="4">
-        <v>4.3671230000000003</v>
+        <v>11.350685</v>
       </c>
       <c r="AW13" t="s">
         <v>69</v>
       </c>
       <c r="AX13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AY13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1">
-        <v>4.875</v>
+        <v>5.5</v>
       </c>
       <c r="D14" s="2">
-        <v>46650</v>
+        <v>50126</v>
       </c>
       <c r="E14" s="2">
-        <v>41172</v>
+        <v>40995</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="G14" t="s">
-        <v>376</v>
+        <v>240</v>
       </c>
       <c r="H14" t="s">
         <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="J14" t="s">
         <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="L14" t="s">
         <v>57</v>
       </c>
       <c r="M14" s="3">
-        <v>349999999.56713998</v>
+        <v>499999999.84272003</v>
       </c>
       <c r="N14" t="s">
         <v>58</v>
@@ -3869,16 +3860,16 @@
         <v>19</v>
       </c>
       <c r="AC14" s="4">
-        <v>123.21193700000001</v>
+        <v>206.593932</v>
       </c>
       <c r="AD14" s="4">
-        <v>0.47099999999999997</v>
+        <v>0.878</v>
       </c>
       <c r="AE14" t="s">
         <v>19</v>
       </c>
       <c r="AF14" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="s">
         <v>19</v>
@@ -3908,7 +3899,7 @@
         <v>19</v>
       </c>
       <c r="AP14" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="s">
         <v>19</v>
@@ -3920,13 +3911,13 @@
         <v>62</v>
       </c>
       <c r="AT14" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="AU14" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="AV14" s="4">
-        <v>4.6520549999999998</v>
+        <v>14.167123</v>
       </c>
       <c r="AW14" t="s">
         <v>69</v>
@@ -3940,25 +3931,25 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1">
-        <v>0.01</v>
+        <v>5.5</v>
       </c>
       <c r="D15" s="2">
-        <v>46889</v>
+        <v>51791</v>
       </c>
       <c r="E15" s="2">
-        <v>43236</v>
+        <v>40833</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="G15" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="H15" t="s">
         <v>53</v>
@@ -3976,7 +3967,7 @@
         <v>57</v>
       </c>
       <c r="M15" s="3">
-        <v>29999999.570969999</v>
+        <v>1499999999.5281601</v>
       </c>
       <c r="N15" t="s">
         <v>58</v>
@@ -3997,7 +3988,7 @@
         <v>60</v>
       </c>
       <c r="T15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="s">
         <v>61</v>
@@ -4023,11 +4014,11 @@
       <c r="AB15" t="s">
         <v>19</v>
       </c>
-      <c r="AC15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>19</v>
+      <c r="AC15" s="4">
+        <v>204.63826</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0.98199999999999998</v>
       </c>
       <c r="AE15" t="s">
         <v>19</v>
@@ -4075,45 +4066,45 @@
         <v>62</v>
       </c>
       <c r="AT15" t="s">
-        <v>133</v>
+        <v>292</v>
       </c>
       <c r="AU15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>19</v>
+        <v>293</v>
+      </c>
+      <c r="AV15" s="4">
+        <v>18.726026999999998</v>
       </c>
       <c r="AW15" t="s">
         <v>69</v>
       </c>
       <c r="AX15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AY15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1">
-        <v>6.25</v>
+        <v>5.125</v>
       </c>
       <c r="D16" s="2">
-        <v>46903</v>
+        <v>55053</v>
       </c>
       <c r="E16" s="2">
-        <v>39598</v>
+        <v>40443</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>307</v>
       </c>
       <c r="G16" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="H16" t="s">
         <v>53</v>
@@ -4131,7 +4122,7 @@
         <v>57</v>
       </c>
       <c r="M16" s="3">
-        <v>499999999.84272003</v>
+        <v>999999999.68544006</v>
       </c>
       <c r="N16" t="s">
         <v>58</v>
@@ -4179,10 +4170,10 @@
         <v>19</v>
       </c>
       <c r="AC16" s="4">
-        <v>191.476122</v>
+        <v>202.081413</v>
       </c>
       <c r="AD16" s="4">
-        <v>0.502</v>
+        <v>1.151</v>
       </c>
       <c r="AE16" t="s">
         <v>19</v>
@@ -4230,13 +4221,13 @@
         <v>62</v>
       </c>
       <c r="AT16" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="AU16" t="s">
-        <v>139</v>
+        <v>309</v>
       </c>
       <c r="AV16" s="4">
-        <v>5.3424659999999999</v>
+        <v>27.657533999999998</v>
       </c>
       <c r="AW16" t="s">
         <v>69</v>
@@ -4250,43 +4241,43 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2">
-        <v>46961</v>
+        <v>78186</v>
       </c>
       <c r="E17" s="2">
-        <v>37099</v>
+        <v>41662</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="G17" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="H17" t="s">
         <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="J17" t="s">
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
         <v>57</v>
       </c>
       <c r="M17" s="3">
-        <v>359999999.69310004</v>
+        <v>1349999999.2525799</v>
       </c>
       <c r="N17" t="s">
         <v>58</v>
@@ -4307,7 +4298,7 @@
         <v>60</v>
       </c>
       <c r="T17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" t="s">
         <v>61</v>
@@ -4334,10 +4325,10 @@
         <v>19</v>
       </c>
       <c r="AC17" s="4">
-        <v>181.60183000000001</v>
+        <v>272.65572100000003</v>
       </c>
       <c r="AD17" s="4">
-        <v>0.753</v>
+        <v>1.8480000000000001</v>
       </c>
       <c r="AE17" t="s">
         <v>19</v>
@@ -4346,7 +4337,7 @@
         <v>19</v>
       </c>
       <c r="AG17" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="s">
         <v>19</v>
@@ -4355,16 +4346,16 @@
         <v>19</v>
       </c>
       <c r="AJ17" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="s">
         <v>19</v>
@@ -4385,13 +4376,13 @@
         <v>62</v>
       </c>
       <c r="AT17" t="s">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="AU17" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="AV17" s="4">
-        <v>5.5013699999999996</v>
+        <v>90.994474999999994</v>
       </c>
       <c r="AW17" t="s">
         <v>69</v>
@@ -4405,25 +4396,25 @@
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0445</v>
+        <v>8.875</v>
       </c>
       <c r="D18" s="2">
-        <v>46961</v>
+        <v>46106</v>
       </c>
       <c r="E18" s="2">
-        <v>44039</v>
+        <v>34914</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="H18" t="s">
         <v>53</v>
@@ -4435,13 +4426,13 @@
         <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
         <v>57</v>
       </c>
       <c r="M18" s="3">
-        <v>99999999.645779997</v>
+        <v>449999999.21292001</v>
       </c>
       <c r="N18" t="s">
         <v>58</v>
@@ -4488,11 +4479,11 @@
       <c r="AB18" t="s">
         <v>19</v>
       </c>
-      <c r="AC18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>19</v>
+      <c r="AC18" s="4">
+        <v>141.48430200000001</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>0.33500000000000002</v>
       </c>
       <c r="AE18" t="s">
         <v>19</v>
@@ -4528,7 +4519,7 @@
         <v>19</v>
       </c>
       <c r="AP18" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="s">
         <v>19</v>
@@ -4540,63 +4531,63 @@
         <v>62</v>
       </c>
       <c r="AT18" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="AU18" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="AV18" s="4">
+        <v>3.1666669999999999</v>
       </c>
       <c r="AW18" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AX18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AY18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1">
-        <v>8.375</v>
+        <v>8.875</v>
       </c>
       <c r="D19" s="2">
-        <v>47077</v>
+        <v>46106</v>
       </c>
       <c r="E19" s="2">
-        <v>39772</v>
+        <v>34914</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="H19" t="s">
         <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="J19" t="s">
         <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s">
         <v>57</v>
       </c>
       <c r="M19" s="3">
-        <v>499999999.84272003</v>
+        <v>449999999.21292001</v>
       </c>
       <c r="N19" t="s">
         <v>58</v>
@@ -4632,10 +4623,10 @@
         <v>62</v>
       </c>
       <c r="Y19" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Z19" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AA19" t="s">
         <v>75</v>
@@ -4644,16 +4635,16 @@
         <v>19</v>
       </c>
       <c r="AC19" s="4">
-        <v>159.63736800000001</v>
+        <v>200.83061000000001</v>
       </c>
       <c r="AD19" s="4">
-        <v>0.63100000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="AE19" t="s">
         <v>19</v>
       </c>
       <c r="AF19" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="s">
         <v>19</v>
@@ -4695,16 +4686,16 @@
         <v>62</v>
       </c>
       <c r="AT19" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="AU19" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="AV19" s="4">
-        <v>5.819178</v>
+        <v>3.1666669999999999</v>
       </c>
       <c r="AW19" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="AX19" t="s">
         <v>78</v>
@@ -4715,25 +4706,25 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1">
-        <v>2.625</v>
+        <v>1.4745999999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>47178</v>
+        <v>53423</v>
       </c>
       <c r="E20" s="2">
-        <v>43525</v>
+        <v>38813</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="G20" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="H20" t="s">
         <v>53</v>
@@ -4751,7 +4742,7 @@
         <v>57</v>
       </c>
       <c r="M20" s="3">
-        <v>249999999.92136002</v>
+        <v>99999999.645779997</v>
       </c>
       <c r="N20" t="s">
         <v>58</v>
@@ -4772,7 +4763,7 @@
         <v>60</v>
       </c>
       <c r="T20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" t="s">
         <v>61</v>
@@ -4799,16 +4790,16 @@
         <v>19</v>
       </c>
       <c r="AC20" s="4">
-        <v>137.54853399999999</v>
+        <v>-139.71313900000001</v>
       </c>
       <c r="AD20" s="4">
-        <v>0.53500000000000003</v>
+        <v>1.492</v>
       </c>
       <c r="AE20" t="s">
         <v>19</v>
       </c>
       <c r="AF20" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG20" t="s">
         <v>19</v>
@@ -4838,7 +4829,7 @@
         <v>19</v>
       </c>
       <c r="AP20" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="s">
         <v>19</v>
@@ -4850,13 +4841,13 @@
         <v>62</v>
       </c>
       <c r="AT20" t="s">
-        <v>152</v>
+        <v>305</v>
       </c>
       <c r="AU20" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="AV20" s="4">
-        <v>6.0958899999999998</v>
+        <v>23.195055</v>
       </c>
       <c r="AW20" t="s">
         <v>69</v>
@@ -4870,25 +4861,25 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="C21" s="1">
-        <v>4.375</v>
+        <v>5.75</v>
       </c>
       <c r="D21" s="2">
-        <v>47190</v>
+        <v>50213</v>
       </c>
       <c r="E21" s="2">
-        <v>40981</v>
+        <v>39253</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="G21" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="H21" t="s">
         <v>53</v>
@@ -4906,7 +4897,7 @@
         <v>57</v>
       </c>
       <c r="M21" s="3">
-        <v>749999999.76408005</v>
+        <v>549999999.66560996</v>
       </c>
       <c r="N21" t="s">
         <v>58</v>
@@ -4942,28 +4933,28 @@
         <v>62</v>
       </c>
       <c r="Y21" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Z21" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AA21" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s">
         <v>19</v>
       </c>
       <c r="AC21" s="4">
-        <v>189.77106599999999</v>
+        <v>170.11461399999999</v>
       </c>
       <c r="AD21" s="4">
-        <v>0.55200000000000005</v>
+        <v>1.07</v>
       </c>
       <c r="AE21" t="s">
         <v>19</v>
       </c>
       <c r="AF21" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG21" t="s">
         <v>19</v>
@@ -4972,7 +4963,7 @@
         <v>19</v>
       </c>
       <c r="AI21" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AJ21" t="s">
         <v>19</v>
@@ -5005,13 +4996,13 @@
         <v>62</v>
       </c>
       <c r="AT21" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="AU21" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="AV21" s="4">
-        <v>6.1287669999999999</v>
+        <v>14.405479</v>
       </c>
       <c r="AW21" t="s">
         <v>69</v>
@@ -5025,25 +5016,25 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1">
-        <v>0.01</v>
+        <v>6.125</v>
       </c>
       <c r="D22" s="2">
-        <v>47191</v>
+        <v>46545</v>
       </c>
       <c r="E22" s="2">
-        <v>42808</v>
+        <v>37414</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="H22" t="s">
         <v>53</v>
@@ -5061,7 +5052,7 @@
         <v>57</v>
       </c>
       <c r="M22" s="3">
-        <v>49999999.822889999</v>
+        <v>299999999.74425</v>
       </c>
       <c r="N22" t="s">
         <v>58</v>
@@ -5082,7 +5073,7 @@
         <v>60</v>
       </c>
       <c r="T22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U22" t="s">
         <v>61</v>
@@ -5109,10 +5100,10 @@
         <v>19</v>
       </c>
       <c r="AC22" s="4">
-        <v>-98.831395999999998</v>
+        <v>129.635434</v>
       </c>
       <c r="AD22" s="4">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="AE22" t="s">
         <v>19</v>
@@ -5148,7 +5139,7 @@
         <v>19</v>
       </c>
       <c r="AP22" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="s">
         <v>19</v>
@@ -5160,45 +5151,45 @@
         <v>62</v>
       </c>
       <c r="AT22" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="AU22" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="AV22" s="4">
-        <v>6.1325969999999996</v>
+        <v>4.3643840000000003</v>
       </c>
       <c r="AW22" t="s">
         <v>69</v>
       </c>
       <c r="AX22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AY22" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C23" s="1">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="D23" s="2">
-        <v>47254</v>
+        <v>47178</v>
       </c>
       <c r="E23" s="2">
-        <v>43055</v>
+        <v>43525</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H23" t="s">
         <v>53</v>
@@ -5264,10 +5255,10 @@
         <v>19</v>
       </c>
       <c r="AC23" s="4">
-        <v>167.33318600000001</v>
+        <v>137.54853399999999</v>
       </c>
       <c r="AD23" s="4">
-        <v>0.57899999999999996</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="AE23" t="s">
         <v>19</v>
@@ -5315,13 +5306,13 @@
         <v>62</v>
       </c>
       <c r="AT23" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="AU23" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="AV23" s="4">
-        <v>6.3041099999999997</v>
+        <v>6.0958899999999998</v>
       </c>
       <c r="AW23" t="s">
         <v>69</v>
@@ -5335,25 +5326,25 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="C24" s="1">
-        <v>3.589</v>
+        <v>2.6709999999999998</v>
       </c>
       <c r="D24" s="2">
-        <v>47691</v>
+        <v>52383</v>
       </c>
       <c r="E24" s="2">
-        <v>37099</v>
+        <v>40695</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="G24" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="H24" t="s">
         <v>53</v>
@@ -5371,7 +5362,7 @@
         <v>57</v>
       </c>
       <c r="M24" s="3">
-        <v>69999999.267900005</v>
+        <v>139999999.34270999</v>
       </c>
       <c r="N24" t="s">
         <v>58</v>
@@ -5407,10 +5398,10 @@
         <v>62</v>
       </c>
       <c r="Y24" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z24" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AA24" t="s">
         <v>75</v>
@@ -5419,19 +5410,19 @@
         <v>19</v>
       </c>
       <c r="AC24" s="4">
-        <v>-126.76582999999999</v>
+        <v>-182.384334</v>
       </c>
       <c r="AD24" s="4">
-        <v>2.5</v>
+        <v>1.982</v>
       </c>
       <c r="AE24" t="s">
         <v>19</v>
       </c>
       <c r="AF24" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG24" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="s">
         <v>19</v>
@@ -5440,16 +5431,16 @@
         <v>19</v>
       </c>
       <c r="AJ24" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AK24" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AN24" t="s">
         <v>19</v>
@@ -5458,7 +5449,7 @@
         <v>19</v>
       </c>
       <c r="AP24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AQ24" t="s">
         <v>19</v>
@@ -5470,13 +5461,13 @@
         <v>62</v>
       </c>
       <c r="AT24" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="AU24" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="AV24" s="4">
-        <v>7.5108699999999997</v>
+        <v>20.348901000000001</v>
       </c>
       <c r="AW24" t="s">
         <v>69</v>
@@ -5490,25 +5481,25 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>441</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="C25" s="1">
-        <v>5.625</v>
+        <v>1.6759999999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>47756</v>
+        <v>55786</v>
       </c>
       <c r="E25" s="2">
-        <v>40711</v>
+        <v>41541</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="G25" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="H25" t="s">
         <v>53</v>
@@ -5526,7 +5517,7 @@
         <v>57</v>
       </c>
       <c r="M25" s="3">
-        <v>299999999.74425</v>
+        <v>104999999.70876001</v>
       </c>
       <c r="N25" t="s">
         <v>58</v>
@@ -5547,7 +5538,7 @@
         <v>60</v>
       </c>
       <c r="T25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" t="s">
         <v>61</v>
@@ -5574,47 +5565,47 @@
         <v>19</v>
       </c>
       <c r="AC25" s="4">
-        <v>139.01681199999999</v>
+        <v>-151.89975100000001</v>
       </c>
       <c r="AD25" s="4">
-        <v>0.68300000000000005</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="s">
         <v>19</v>
       </c>
       <c r="AF25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP25" t="s">
         <v>66</v>
       </c>
-      <c r="AG25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>19</v>
-      </c>
       <c r="AQ25" t="s">
         <v>19</v>
       </c>
@@ -5625,13 +5616,13 @@
         <v>62</v>
       </c>
       <c r="AT25" t="s">
-        <v>170</v>
+        <v>311</v>
       </c>
       <c r="AU25" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="AV25" s="4">
-        <v>7.6794520000000004</v>
+        <v>29.660221</v>
       </c>
       <c r="AW25" t="s">
         <v>69</v>
@@ -5645,25 +5636,25 @@
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1">
-        <v>7.375</v>
+        <v>0.01</v>
       </c>
       <c r="D26" s="2">
-        <v>47861</v>
+        <v>47191</v>
       </c>
       <c r="E26" s="2">
-        <v>39826</v>
+        <v>42808</v>
       </c>
       <c r="F26" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G26" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="H26" t="s">
         <v>53</v>
@@ -5681,7 +5672,7 @@
         <v>57</v>
       </c>
       <c r="M26" s="3">
-        <v>378999999.60966003</v>
+        <v>49999999.822889999</v>
       </c>
       <c r="N26" t="s">
         <v>58</v>
@@ -5702,7 +5693,7 @@
         <v>60</v>
       </c>
       <c r="T26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26" t="s">
         <v>61</v>
@@ -5729,16 +5720,16 @@
         <v>19</v>
       </c>
       <c r="AC26" s="4">
-        <v>213.16130200000001</v>
+        <v>-98.831395999999998</v>
       </c>
       <c r="AD26" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="s">
         <v>19</v>
       </c>
       <c r="AF26" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG26" t="s">
         <v>19</v>
@@ -5768,7 +5759,7 @@
         <v>19</v>
       </c>
       <c r="AP26" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ26" t="s">
         <v>19</v>
@@ -5780,45 +5771,45 @@
         <v>62</v>
       </c>
       <c r="AT26" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="AU26" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="AV26" s="4">
-        <v>7.967123</v>
+        <v>6.1325969999999996</v>
       </c>
       <c r="AW26" t="s">
         <v>69</v>
       </c>
       <c r="AX26" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AY26" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C27" s="1">
-        <v>7.375</v>
+        <v>0.01</v>
       </c>
       <c r="D27" s="2">
-        <v>47861</v>
+        <v>49760</v>
       </c>
       <c r="E27" s="2">
-        <v>39854</v>
+        <v>43185</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="H27" t="s">
         <v>53</v>
@@ -5836,10 +5827,10 @@
         <v>57</v>
       </c>
       <c r="M27" s="3">
-        <v>14999999.382030001</v>
+        <v>29999999.570969999</v>
       </c>
       <c r="N27" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="O27" t="s">
         <v>59</v>
@@ -5857,7 +5848,7 @@
         <v>60</v>
       </c>
       <c r="T27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U27" t="s">
         <v>61</v>
@@ -5872,10 +5863,10 @@
         <v>62</v>
       </c>
       <c r="Y27" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AA27" t="s">
         <v>75</v>
@@ -5923,7 +5914,7 @@
         <v>19</v>
       </c>
       <c r="AP27" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ27" t="s">
         <v>19</v>
@@ -5935,10 +5926,10 @@
         <v>62</v>
       </c>
       <c r="AT27" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="AU27" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="AV27" t="s">
         <v>19</v>
@@ -5955,25 +5946,25 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C28" s="1">
-        <v>5.875</v>
+        <v>4.80436</v>
       </c>
       <c r="D28" s="2">
-        <v>48047</v>
+        <v>50395</v>
       </c>
       <c r="E28" s="2">
-        <v>37090</v>
+        <v>39072</v>
       </c>
       <c r="F28" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="G28" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="H28" t="s">
         <v>53</v>
@@ -5991,7 +5982,7 @@
         <v>57</v>
       </c>
       <c r="M28" s="3">
-        <v>649999999.31139004</v>
+        <v>224999999.60646001</v>
       </c>
       <c r="N28" t="s">
         <v>58</v>
@@ -6039,10 +6030,10 @@
         <v>19</v>
       </c>
       <c r="AC28" s="4">
-        <v>197.90276299999999</v>
+        <v>143.99855099999999</v>
       </c>
       <c r="AD28" s="4">
-        <v>0.65900000000000003</v>
+        <v>1.8</v>
       </c>
       <c r="AE28" t="s">
         <v>19</v>
@@ -6090,13 +6081,13 @@
         <v>62</v>
       </c>
       <c r="AT28" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="AU28" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="AV28" s="4">
-        <v>8.4767119999999991</v>
+        <v>14.904109999999999</v>
       </c>
       <c r="AW28" t="s">
         <v>69</v>
@@ -6110,25 +6101,25 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>441</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C29" s="1">
         <v>5.75</v>
       </c>
       <c r="D29" s="2">
-        <v>48320</v>
+        <v>51218</v>
       </c>
       <c r="E29" s="2">
-        <v>40680</v>
+        <v>40260</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="H29" t="s">
         <v>53</v>
@@ -6146,7 +6137,7 @@
         <v>57</v>
       </c>
       <c r="M29" s="3">
-        <v>799999999.58696997</v>
+        <v>199999999.29155999</v>
       </c>
       <c r="N29" t="s">
         <v>58</v>
@@ -6194,10 +6185,10 @@
         <v>19</v>
       </c>
       <c r="AC29" s="4">
-        <v>164.476259</v>
+        <v>148.68805699999999</v>
       </c>
       <c r="AD29" s="4">
-        <v>0.79700000000000004</v>
+        <v>1.18</v>
       </c>
       <c r="AE29" t="s">
         <v>19</v>
@@ -6212,7 +6203,7 @@
         <v>19</v>
       </c>
       <c r="AI29" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="s">
         <v>19</v>
@@ -6245,13 +6236,13 @@
         <v>62</v>
       </c>
       <c r="AT29" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="AU29" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="AV29" s="4">
-        <v>9.2219180000000005</v>
+        <v>17.156164</v>
       </c>
       <c r="AW29" t="s">
         <v>69</v>
@@ -6265,25 +6256,25 @@
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>441</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1">
-        <v>5.5</v>
+        <v>5.875</v>
       </c>
       <c r="D30" s="2">
-        <v>48372</v>
+        <v>46471</v>
       </c>
       <c r="E30" s="2">
-        <v>37244</v>
+        <v>37705</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="G30" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="H30" t="s">
         <v>53</v>
@@ -6295,13 +6286,13 @@
         <v>55</v>
       </c>
       <c r="K30" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="L30" t="s">
         <v>57</v>
       </c>
       <c r="M30" s="3">
-        <v>349999999.56713998</v>
+        <v>249999999.92136002</v>
       </c>
       <c r="N30" t="s">
         <v>58</v>
@@ -6349,10 +6340,10 @@
         <v>19</v>
       </c>
       <c r="AC30" s="4">
-        <v>136.41097400000001</v>
+        <v>142.70972900000001</v>
       </c>
       <c r="AD30" s="4">
-        <v>0.71599999999999997</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="AE30" t="s">
         <v>19</v>
@@ -6400,13 +6391,13 @@
         <v>62</v>
       </c>
       <c r="AT30" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="AU30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AV30" s="4">
-        <v>9.3643839999999994</v>
+        <v>4.1616439999999999</v>
       </c>
       <c r="AW30" t="s">
         <v>69</v>
@@ -6420,25 +6411,25 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>441</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1">
-        <v>4.375</v>
+        <v>2.375</v>
       </c>
       <c r="D31" s="2">
-        <v>48400</v>
+        <v>47254</v>
       </c>
       <c r="E31" s="2">
-        <v>41095</v>
+        <v>43055</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="G31" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="H31" t="s">
         <v>53</v>
@@ -6450,13 +6441,13 @@
         <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L31" t="s">
         <v>57</v>
       </c>
       <c r="M31" s="3">
-        <v>149999999.46867001</v>
+        <v>249999999.92136002</v>
       </c>
       <c r="N31" t="s">
         <v>58</v>
@@ -6504,64 +6495,64 @@
         <v>19</v>
       </c>
       <c r="AC31" s="4">
-        <v>136.84643399999999</v>
+        <v>167.33318600000001</v>
       </c>
       <c r="AD31" s="4">
-        <v>0.375</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="AE31" t="s">
         <v>19</v>
       </c>
       <c r="AF31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP31" t="s">
         <v>66</v>
       </c>
-      <c r="AG31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>19</v>
-      </c>
       <c r="AQ31" t="s">
         <v>19</v>
       </c>
       <c r="AR31" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="s">
         <v>62</v>
       </c>
       <c r="AT31" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="AU31" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="AV31" s="4">
-        <v>9.4410959999999999</v>
+        <v>6.3041099999999997</v>
       </c>
       <c r="AW31" t="s">
         <v>69</v>
@@ -6575,25 +6566,25 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1">
-        <v>2.8170000000000002</v>
+        <v>5.75</v>
       </c>
       <c r="D32" s="2">
-        <v>48403</v>
+        <v>51218</v>
       </c>
       <c r="E32" s="2">
-        <v>37445</v>
+        <v>40260</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="G32" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="H32" t="s">
         <v>53</v>
@@ -6605,13 +6596,13 @@
         <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L32" t="s">
         <v>57</v>
       </c>
       <c r="M32" s="3">
-        <v>49999999.822889999</v>
+        <v>199999999.29155999</v>
       </c>
       <c r="N32" t="s">
         <v>58</v>
@@ -6632,7 +6623,7 @@
         <v>60</v>
       </c>
       <c r="T32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U32" t="s">
         <v>61</v>
@@ -6656,22 +6647,22 @@
         <v>75</v>
       </c>
       <c r="AB32" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AC32" s="4">
-        <v>-135.54281900000001</v>
+        <v>148.781667</v>
       </c>
       <c r="AD32" s="4">
-        <v>2</v>
+        <v>1.252</v>
       </c>
       <c r="AE32" t="s">
         <v>19</v>
       </c>
       <c r="AF32" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG32" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AH32" t="s">
         <v>19</v>
@@ -6680,16 +6671,16 @@
         <v>19</v>
       </c>
       <c r="AJ32" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AK32" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL32" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AM32" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AN32" t="s">
         <v>19</v>
@@ -6698,7 +6689,7 @@
         <v>19</v>
       </c>
       <c r="AP32" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="s">
         <v>19</v>
@@ -6710,13 +6701,13 @@
         <v>62</v>
       </c>
       <c r="AT32" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="AU32" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="AV32" s="4">
-        <v>9.4530390000000004</v>
+        <v>17.156164</v>
       </c>
       <c r="AW32" t="s">
         <v>69</v>
@@ -6730,25 +6721,25 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>441</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1">
-        <v>7</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="D33" s="2">
-        <v>48841</v>
+        <v>56219</v>
       </c>
       <c r="E33" s="2">
-        <v>39710</v>
+        <v>39052</v>
       </c>
       <c r="F33" t="s">
-        <v>195</v>
+        <v>313</v>
       </c>
       <c r="G33" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="H33" t="s">
         <v>53</v>
@@ -6766,7 +6757,7 @@
         <v>57</v>
       </c>
       <c r="M33" s="3">
-        <v>769999999.20908999</v>
+        <v>104999999.70876001</v>
       </c>
       <c r="N33" t="s">
         <v>58</v>
@@ -6787,7 +6778,7 @@
         <v>60</v>
       </c>
       <c r="T33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U33" t="s">
         <v>61</v>
@@ -6802,22 +6793,22 @@
         <v>62</v>
       </c>
       <c r="Y33" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Z33" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AA33" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="s">
         <v>19</v>
       </c>
       <c r="AC33" s="4">
-        <v>194.66188199999999</v>
+        <v>-141.504278</v>
       </c>
       <c r="AD33" s="4">
-        <v>0.85799999999999998</v>
+        <v>0.999</v>
       </c>
       <c r="AE33" t="s">
         <v>19</v>
@@ -6865,45 +6856,45 @@
         <v>62</v>
       </c>
       <c r="AT33" t="s">
-        <v>196</v>
+        <v>314</v>
       </c>
       <c r="AU33" t="s">
-        <v>197</v>
+        <v>315</v>
       </c>
       <c r="AV33" s="4">
-        <v>10.649315</v>
+        <v>30.848901000000001</v>
       </c>
       <c r="AW33" t="s">
         <v>69</v>
       </c>
       <c r="AX33" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AY33" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1">
-        <v>2.125</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="D34" s="2">
-        <v>48908</v>
+        <v>56219</v>
       </c>
       <c r="E34" s="2">
-        <v>43794</v>
+        <v>39052</v>
       </c>
       <c r="F34" t="s">
-        <v>198</v>
+        <v>316</v>
       </c>
       <c r="G34" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="H34" t="s">
         <v>53</v>
@@ -6915,13 +6906,13 @@
         <v>55</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="L34" t="s">
         <v>57</v>
       </c>
       <c r="M34" s="3">
-        <v>249999999.92136002</v>
+        <v>104999999.70876001</v>
       </c>
       <c r="N34" t="s">
         <v>58</v>
@@ -6942,7 +6933,7 @@
         <v>60</v>
       </c>
       <c r="T34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U34" t="s">
         <v>61</v>
@@ -6969,10 +6960,10 @@
         <v>19</v>
       </c>
       <c r="AC34" s="4">
-        <v>128.875452</v>
+        <v>-170.92733899999999</v>
       </c>
       <c r="AD34" s="4">
-        <v>0.71499999999999997</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="AE34" t="s">
         <v>19</v>
@@ -7008,7 +6999,7 @@
         <v>19</v>
       </c>
       <c r="AP34" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ34" t="s">
         <v>19</v>
@@ -7020,13 +7011,13 @@
         <v>62</v>
       </c>
       <c r="AT34" t="s">
-        <v>199</v>
+        <v>314</v>
       </c>
       <c r="AU34" t="s">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="AV34" s="4">
-        <v>10.832877</v>
+        <v>30.848901000000001</v>
       </c>
       <c r="AW34" t="s">
         <v>69</v>
@@ -7040,25 +7031,25 @@
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1">
-        <v>6.125</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="D35" s="2">
-        <v>49097</v>
+        <v>57315</v>
       </c>
       <c r="E35" s="2">
-        <v>39966</v>
+        <v>39052</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>330</v>
       </c>
       <c r="G35" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="H35" t="s">
         <v>53</v>
@@ -7076,7 +7067,7 @@
         <v>57</v>
       </c>
       <c r="M35" s="3">
-        <v>1499999999.5281601</v>
+        <v>119999999.8977</v>
       </c>
       <c r="N35" t="s">
         <v>58</v>
@@ -7097,7 +7088,7 @@
         <v>60</v>
       </c>
       <c r="T35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" t="s">
         <v>61</v>
@@ -7112,10 +7103,10 @@
         <v>62</v>
       </c>
       <c r="Y35" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Z35" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AA35" t="s">
         <v>75</v>
@@ -7124,10 +7115,10 @@
         <v>19</v>
       </c>
       <c r="AC35" s="4">
-        <v>205.68975499999999</v>
+        <v>-160.809641</v>
       </c>
       <c r="AD35" s="4">
-        <v>0.72699999999999998</v>
+        <v>3</v>
       </c>
       <c r="AE35" t="s">
         <v>19</v>
@@ -7175,13 +7166,13 @@
         <v>62</v>
       </c>
       <c r="AT35" t="s">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="AU35" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="AV35" s="4">
-        <v>11.350685</v>
+        <v>33.848900999999998</v>
       </c>
       <c r="AW35" t="s">
         <v>69</v>
@@ -7195,25 +7186,25 @@
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C36" s="1">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="D36" s="2">
-        <v>49369</v>
+        <v>46889</v>
       </c>
       <c r="E36" s="2">
-        <v>38412</v>
+        <v>43236</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="G36" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="H36" t="s">
         <v>53</v>
@@ -7231,7 +7222,7 @@
         <v>57</v>
       </c>
       <c r="M36" s="3">
-        <v>74999999.330880001</v>
+        <v>29999999.570969999</v>
       </c>
       <c r="N36" t="s">
         <v>58</v>
@@ -7252,7 +7243,7 @@
         <v>60</v>
       </c>
       <c r="T36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U36" t="s">
         <v>61</v>
@@ -7278,17 +7269,17 @@
       <c r="AB36" t="s">
         <v>19</v>
       </c>
-      <c r="AC36" s="4">
-        <v>206.07060200000001</v>
-      </c>
-      <c r="AD36" s="4">
-        <v>0.42699999999999999</v>
+      <c r="AC36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>19</v>
       </c>
       <c r="AE36" t="s">
         <v>19</v>
       </c>
       <c r="AF36" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG36" t="s">
         <v>19</v>
@@ -7330,13 +7321,13 @@
         <v>62</v>
       </c>
       <c r="AT36" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="AU36" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV36" s="4">
-        <v>12.095890000000001</v>
+        <v>131</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>19</v>
       </c>
       <c r="AW36" t="s">
         <v>69</v>
@@ -7350,25 +7341,25 @@
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>441</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="C37" s="1">
-        <v>5.125</v>
+        <v>5.75</v>
       </c>
       <c r="D37" s="2">
-        <v>49433</v>
+        <v>48320</v>
       </c>
       <c r="E37" s="2">
-        <v>38477</v>
+        <v>40680</v>
       </c>
       <c r="F37" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="G37" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H37" t="s">
         <v>53</v>
@@ -7380,13 +7371,13 @@
         <v>55</v>
       </c>
       <c r="K37" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L37" t="s">
         <v>57</v>
       </c>
       <c r="M37" s="3">
-        <v>199999999.29155999</v>
+        <v>799999999.58696997</v>
       </c>
       <c r="N37" t="s">
         <v>58</v>
@@ -7422,28 +7413,28 @@
         <v>62</v>
       </c>
       <c r="Y37" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z37" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AA37" t="s">
         <v>75</v>
       </c>
       <c r="AB37" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AC37" s="4">
-        <v>138.576245</v>
+        <v>164.476259</v>
       </c>
       <c r="AD37" s="4">
-        <v>1.1180000000000001</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="AE37" t="s">
         <v>19</v>
       </c>
       <c r="AF37" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG37" t="s">
         <v>19</v>
@@ -7452,7 +7443,7 @@
         <v>19</v>
       </c>
       <c r="AI37" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AJ37" t="s">
         <v>19</v>
@@ -7485,16 +7476,16 @@
         <v>62</v>
       </c>
       <c r="AT37" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="AU37" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="AV37" s="4">
-        <v>12.275</v>
+        <v>9.2219180000000005</v>
       </c>
       <c r="AW37" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="AX37" t="s">
         <v>78</v>
@@ -7505,25 +7496,25 @@
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C38" s="1">
-        <v>1.875</v>
+        <v>4</v>
       </c>
       <c r="D38" s="2">
-        <v>49461</v>
+        <v>46546</v>
       </c>
       <c r="E38" s="2">
-        <v>43983</v>
+        <v>41068</v>
       </c>
       <c r="F38" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="G38" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="H38" t="s">
         <v>53</v>
@@ -7541,7 +7532,7 @@
         <v>57</v>
       </c>
       <c r="M38" s="3">
-        <v>299999999.74425</v>
+        <v>574999999.98051</v>
       </c>
       <c r="N38" t="s">
         <v>58</v>
@@ -7589,10 +7580,10 @@
         <v>19</v>
       </c>
       <c r="AC38" s="4">
-        <v>115.77385700000001</v>
+        <v>150.654011</v>
       </c>
       <c r="AD38" s="4">
-        <v>0.71399999999999997</v>
+        <v>0.46</v>
       </c>
       <c r="AE38" t="s">
         <v>19</v>
@@ -7628,57 +7619,57 @@
         <v>19</v>
       </c>
       <c r="AP38" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ38" t="s">
         <v>19</v>
       </c>
       <c r="AR38" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AS38" t="s">
         <v>62</v>
       </c>
       <c r="AT38" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="AU38" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="AV38" s="4">
-        <v>12.347944999999999</v>
+        <v>4.3671230000000003</v>
       </c>
       <c r="AW38" t="s">
         <v>69</v>
       </c>
       <c r="AX38" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AY38" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1">
-        <v>2.2280000000000002</v>
+        <v>6.5</v>
       </c>
       <c r="D39" s="2">
-        <v>49488</v>
+        <v>46961</v>
       </c>
       <c r="E39" s="2">
-        <v>38531</v>
+        <v>37099</v>
       </c>
       <c r="F39" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="G39" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="H39" t="s">
         <v>53</v>
@@ -7690,13 +7681,13 @@
         <v>55</v>
       </c>
       <c r="K39" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="L39" t="s">
         <v>57</v>
       </c>
       <c r="M39" s="3">
-        <v>49999999.822889999</v>
+        <v>359999999.69310004</v>
       </c>
       <c r="N39" t="s">
         <v>58</v>
@@ -7717,7 +7708,7 @@
         <v>60</v>
       </c>
       <c r="T39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U39" t="s">
         <v>61</v>
@@ -7744,37 +7735,37 @@
         <v>19</v>
       </c>
       <c r="AC39" s="4">
-        <v>-121.622179</v>
+        <v>181.60183000000001</v>
       </c>
       <c r="AD39" s="4">
-        <v>1.0189999999999999</v>
+        <v>0.753</v>
       </c>
       <c r="AE39" t="s">
         <v>19</v>
       </c>
       <c r="AF39" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG39" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AH39" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="s">
         <v>19</v>
       </c>
       <c r="AJ39" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AL39" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AM39" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AN39" t="s">
         <v>19</v>
@@ -7789,22 +7780,22 @@
         <v>19</v>
       </c>
       <c r="AR39" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AS39" t="s">
         <v>62</v>
       </c>
       <c r="AT39" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="AU39" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="AV39" s="4">
-        <v>12.425000000000001</v>
+        <v>5.5013699999999996</v>
       </c>
       <c r="AW39" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AX39" t="s">
         <v>78</v>
@@ -7815,25 +7806,25 @@
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1">
-        <v>2.0752000000000002</v>
+        <v>1.0445</v>
       </c>
       <c r="D40" s="2">
-        <v>49549</v>
+        <v>46961</v>
       </c>
       <c r="E40" s="2">
-        <v>38595</v>
+        <v>44039</v>
       </c>
       <c r="F40" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="G40" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="H40" t="s">
         <v>53</v>
@@ -7851,7 +7842,7 @@
         <v>57</v>
       </c>
       <c r="M40" s="3">
-        <v>24999999.507989999</v>
+        <v>99999999.645779997</v>
       </c>
       <c r="N40" t="s">
         <v>58</v>
@@ -7872,7 +7863,7 @@
         <v>60</v>
       </c>
       <c r="T40" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U40" t="s">
         <v>61</v>
@@ -7898,11 +7889,11 @@
       <c r="AB40" t="s">
         <v>19</v>
       </c>
-      <c r="AC40" s="4">
-        <v>-115.818521</v>
-      </c>
-      <c r="AD40" s="4">
-        <v>1.0049999999999999</v>
+      <c r="AC40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>19</v>
       </c>
       <c r="AE40" t="s">
         <v>19</v>
@@ -7938,7 +7929,7 @@
         <v>19</v>
       </c>
       <c r="AP40" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ40" t="s">
         <v>19</v>
@@ -7950,13 +7941,13 @@
         <v>62</v>
       </c>
       <c r="AT40" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="AU40" t="s">
-        <v>218</v>
-      </c>
-      <c r="AV40" s="4">
-        <v>12.592390999999999</v>
+        <v>142</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>19</v>
       </c>
       <c r="AW40" t="s">
         <v>69</v>
@@ -7970,25 +7961,25 @@
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1">
-        <v>2.0352999999999999</v>
+        <v>3.589</v>
       </c>
       <c r="D41" s="2">
-        <v>49580</v>
+        <v>47691</v>
       </c>
       <c r="E41" s="2">
-        <v>38623</v>
+        <v>37099</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="G41" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="H41" t="s">
         <v>53</v>
@@ -8006,7 +7997,7 @@
         <v>57</v>
       </c>
       <c r="M41" s="3">
-        <v>74999999.330880001</v>
+        <v>69999999.267900005</v>
       </c>
       <c r="N41" t="s">
         <v>58</v>
@@ -8042,10 +8033,10 @@
         <v>62</v>
       </c>
       <c r="Y41" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Z41" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AA41" t="s">
         <v>75</v>
@@ -8054,10 +8045,10 @@
         <v>19</v>
       </c>
       <c r="AC41" s="4">
-        <v>-153.94735399999999</v>
+        <v>-126.76582999999999</v>
       </c>
       <c r="AD41" s="4">
-        <v>1.0620000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="AE41" t="s">
         <v>19</v>
@@ -8066,7 +8057,7 @@
         <v>19</v>
       </c>
       <c r="AG41" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AH41" t="s">
         <v>19</v>
@@ -8075,16 +8066,16 @@
         <v>19</v>
       </c>
       <c r="AJ41" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AL41" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AM41" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AN41" t="s">
         <v>19</v>
@@ -8093,7 +8084,7 @@
         <v>19</v>
       </c>
       <c r="AP41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AQ41" t="s">
         <v>19</v>
@@ -8105,45 +8096,45 @@
         <v>62</v>
       </c>
       <c r="AT41" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="AU41" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="AV41" s="4">
-        <v>12.671271000000001</v>
+        <v>7.5108699999999997</v>
       </c>
       <c r="AW41" t="s">
         <v>69</v>
       </c>
       <c r="AX41" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AY41" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1">
-        <v>1.9948999999999999</v>
+        <v>7.375</v>
       </c>
       <c r="D42" s="2">
-        <v>49599</v>
+        <v>47861</v>
       </c>
       <c r="E42" s="2">
-        <v>38642</v>
+        <v>39826</v>
       </c>
       <c r="F42" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="G42" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="H42" t="s">
         <v>53</v>
@@ -8161,7 +8152,7 @@
         <v>57</v>
       </c>
       <c r="M42" s="3">
-        <v>24999999.507989999</v>
+        <v>378999999.60966003</v>
       </c>
       <c r="N42" t="s">
         <v>58</v>
@@ -8182,7 +8173,7 @@
         <v>60</v>
       </c>
       <c r="T42" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U42" t="s">
         <v>61</v>
@@ -8209,10 +8200,10 @@
         <v>19</v>
       </c>
       <c r="AC42" s="4">
-        <v>-154.37728100000001</v>
+        <v>213.16130200000001</v>
       </c>
       <c r="AD42" s="4">
-        <v>1.0589999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AE42" t="s">
         <v>19</v>
@@ -8260,45 +8251,45 @@
         <v>62</v>
       </c>
       <c r="AT42" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="AU42" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="AV42" s="4">
-        <v>12.725275</v>
+        <v>7.967123</v>
       </c>
       <c r="AW42" t="s">
         <v>69</v>
       </c>
       <c r="AX42" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AY42" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1">
-        <v>1.8204</v>
+        <v>7.375</v>
       </c>
       <c r="D43" s="2">
-        <v>49636</v>
+        <v>47861</v>
       </c>
       <c r="E43" s="2">
-        <v>38679</v>
+        <v>39854</v>
       </c>
       <c r="F43" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G43" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="H43" t="s">
         <v>53</v>
@@ -8316,10 +8307,10 @@
         <v>57</v>
       </c>
       <c r="M43" s="3">
-        <v>49999999.822889999</v>
+        <v>14999999.382030001</v>
       </c>
       <c r="N43" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O43" t="s">
         <v>59</v>
@@ -8337,7 +8328,7 @@
         <v>60</v>
       </c>
       <c r="T43" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U43" t="s">
         <v>61</v>
@@ -8352,10 +8343,10 @@
         <v>62</v>
       </c>
       <c r="Y43" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Z43" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AA43" t="s">
         <v>75</v>
@@ -8363,11 +8354,11 @@
       <c r="AB43" t="s">
         <v>19</v>
       </c>
-      <c r="AC43" s="4">
-        <v>-155.39905899999999</v>
-      </c>
-      <c r="AD43" s="4">
-        <v>2.1059999999999999</v>
+      <c r="AC43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>19</v>
       </c>
       <c r="AE43" t="s">
         <v>19</v>
@@ -8403,7 +8394,7 @@
         <v>19</v>
       </c>
       <c r="AP43" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ43" t="s">
         <v>19</v>
@@ -8415,13 +8406,13 @@
         <v>62</v>
       </c>
       <c r="AT43" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="AU43" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV43" s="4">
-        <v>12.825967</v>
+        <v>170</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>19</v>
       </c>
       <c r="AW43" t="s">
         <v>69</v>
@@ -8435,25 +8426,25 @@
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>441</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1">
-        <v>0.01</v>
+        <v>2.8170000000000002</v>
       </c>
       <c r="D44" s="2">
-        <v>49760</v>
+        <v>48403</v>
       </c>
       <c r="E44" s="2">
-        <v>43185</v>
+        <v>37445</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="G44" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="H44" t="s">
         <v>53</v>
@@ -8465,13 +8456,13 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="L44" t="s">
         <v>57</v>
       </c>
       <c r="M44" s="3">
-        <v>29999999.570969999</v>
+        <v>49999999.822889999</v>
       </c>
       <c r="N44" t="s">
         <v>58</v>
@@ -8516,13 +8507,13 @@
         <v>75</v>
       </c>
       <c r="AB44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>19</v>
+        <v>107</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>-135.54281900000001</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>2</v>
       </c>
       <c r="AE44" t="s">
         <v>19</v>
@@ -8531,7 +8522,7 @@
         <v>19</v>
       </c>
       <c r="AG44" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AH44" t="s">
         <v>19</v>
@@ -8540,16 +8531,16 @@
         <v>19</v>
       </c>
       <c r="AJ44" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AL44" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AM44" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AN44" t="s">
         <v>19</v>
@@ -8558,7 +8549,7 @@
         <v>19</v>
       </c>
       <c r="AP44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AQ44" t="s">
         <v>19</v>
@@ -8570,13 +8561,13 @@
         <v>62</v>
       </c>
       <c r="AT44" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="AU44" t="s">
-        <v>230</v>
-      </c>
-      <c r="AV44" t="s">
-        <v>19</v>
+        <v>190</v>
+      </c>
+      <c r="AV44" s="4">
+        <v>9.4530390000000004</v>
       </c>
       <c r="AW44" t="s">
         <v>69</v>
@@ -8590,25 +8581,25 @@
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1">
-        <v>1.6449</v>
+        <v>5</v>
       </c>
       <c r="D45" s="2">
-        <v>49768</v>
+        <v>49369</v>
       </c>
       <c r="E45" s="2">
-        <v>38810</v>
+        <v>38412</v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="G45" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="H45" t="s">
         <v>53</v>
@@ -8626,7 +8617,7 @@
         <v>57</v>
       </c>
       <c r="M45" s="3">
-        <v>199999999.29155999</v>
+        <v>74999999.330880001</v>
       </c>
       <c r="N45" t="s">
         <v>58</v>
@@ -8647,7 +8638,7 @@
         <v>60</v>
       </c>
       <c r="T45" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U45" t="s">
         <v>61</v>
@@ -8674,10 +8665,10 @@
         <v>19</v>
       </c>
       <c r="AC45" s="4">
-        <v>-125.33748</v>
+        <v>206.07060200000001</v>
       </c>
       <c r="AD45" s="4">
-        <v>1.0069999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="AE45" t="s">
         <v>19</v>
@@ -8725,13 +8716,13 @@
         <v>62</v>
       </c>
       <c r="AT45" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="AU45" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="AV45" s="4">
-        <v>13.186813000000001</v>
+        <v>12.095890000000001</v>
       </c>
       <c r="AW45" t="s">
         <v>69</v>
@@ -8745,25 +8736,25 @@
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1">
-        <v>1.6747000000000001</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="D46" s="2">
-        <v>49772</v>
+        <v>49488</v>
       </c>
       <c r="E46" s="2">
-        <v>38814</v>
+        <v>38531</v>
       </c>
       <c r="F46" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="G46" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="H46" t="s">
         <v>53</v>
@@ -8829,22 +8820,22 @@
         <v>19</v>
       </c>
       <c r="AC46" s="4">
-        <v>-124.372591</v>
+        <v>-121.622179</v>
       </c>
       <c r="AD46" s="4">
-        <v>1.008</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="AE46" t="s">
         <v>19</v>
       </c>
       <c r="AF46" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG46" t="s">
         <v>19</v>
       </c>
       <c r="AH46" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AI46" t="s">
         <v>19</v>
@@ -8868,28 +8859,28 @@
         <v>19</v>
       </c>
       <c r="AP46" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ46" t="s">
         <v>19</v>
       </c>
       <c r="AR46" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AS46" t="s">
         <v>62</v>
       </c>
       <c r="AT46" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="AU46" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="AV46" s="4">
-        <v>13.197801999999999</v>
+        <v>12.425000000000001</v>
       </c>
       <c r="AW46" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AX46" t="s">
         <v>78</v>
@@ -8900,25 +8891,25 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1">
-        <v>1.3740000000000001</v>
+        <v>2.0752000000000002</v>
       </c>
       <c r="D47" s="2">
-        <v>50076</v>
+        <v>49549</v>
       </c>
       <c r="E47" s="2">
-        <v>41310</v>
+        <v>38595</v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G47" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="H47" t="s">
         <v>53</v>
@@ -8936,7 +8927,7 @@
         <v>57</v>
       </c>
       <c r="M47" s="3">
-        <v>29999999.570969999</v>
+        <v>24999999.507989999</v>
       </c>
       <c r="N47" t="s">
         <v>58</v>
@@ -8984,10 +8975,10 @@
         <v>19</v>
       </c>
       <c r="AC47" s="4">
-        <v>-179.57043200000001</v>
+        <v>-115.818521</v>
       </c>
       <c r="AD47" s="4">
-        <v>0.59299999999999997</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="AE47" t="s">
         <v>19</v>
@@ -9023,7 +9014,7 @@
         <v>19</v>
       </c>
       <c r="AP47" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ47" t="s">
         <v>19</v>
@@ -9035,13 +9026,13 @@
         <v>62</v>
       </c>
       <c r="AT47" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="AU47" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="AV47" s="4">
-        <v>14.029890999999999</v>
+        <v>12.592390999999999</v>
       </c>
       <c r="AW47" t="s">
         <v>69</v>
@@ -9055,25 +9046,25 @@
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>441</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1">
-        <v>4.625</v>
+        <v>2.0352999999999999</v>
       </c>
       <c r="D48" s="2">
-        <v>50091</v>
+        <v>49580</v>
       </c>
       <c r="E48" s="2">
-        <v>38768</v>
+        <v>38623</v>
       </c>
       <c r="F48" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="G48" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="H48" t="s">
         <v>53</v>
@@ -9085,13 +9076,13 @@
         <v>55</v>
       </c>
       <c r="K48" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L48" t="s">
         <v>57</v>
       </c>
       <c r="M48" s="3">
-        <v>324999999.25224</v>
+        <v>74999999.330880001</v>
       </c>
       <c r="N48" t="s">
         <v>58</v>
@@ -9112,7 +9103,7 @@
         <v>60</v>
       </c>
       <c r="T48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U48" t="s">
         <v>61</v>
@@ -9139,47 +9130,47 @@
         <v>19</v>
       </c>
       <c r="AC48" s="4">
-        <v>146.95830900000001</v>
+        <v>-153.94735399999999</v>
       </c>
       <c r="AD48" s="4">
-        <v>0.91900000000000004</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="AE48" t="s">
         <v>19</v>
       </c>
       <c r="AF48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP48" t="s">
         <v>66</v>
       </c>
-      <c r="AG48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP48" t="s">
-        <v>19</v>
-      </c>
       <c r="AQ48" t="s">
         <v>19</v>
       </c>
@@ -9190,13 +9181,13 @@
         <v>62</v>
       </c>
       <c r="AT48" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="AU48" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="AV48" s="4">
-        <v>14.071232999999999</v>
+        <v>12.671271000000001</v>
       </c>
       <c r="AW48" t="s">
         <v>69</v>
@@ -9210,25 +9201,25 @@
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1">
-        <v>4.625</v>
+        <v>1.9948999999999999</v>
       </c>
       <c r="D49" s="2">
-        <v>50091</v>
+        <v>49599</v>
       </c>
       <c r="E49" s="2">
-        <v>38768</v>
+        <v>38642</v>
       </c>
       <c r="F49" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="G49" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="H49" t="s">
         <v>53</v>
@@ -9246,10 +9237,10 @@
         <v>57</v>
       </c>
       <c r="M49" s="3">
-        <v>19999999.445009999</v>
+        <v>24999999.507989999</v>
       </c>
       <c r="N49" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="O49" t="s">
         <v>59</v>
@@ -9267,7 +9258,7 @@
         <v>60</v>
       </c>
       <c r="T49" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49" t="s">
         <v>61</v>
@@ -9294,10 +9285,10 @@
         <v>19</v>
       </c>
       <c r="AC49" s="4">
-        <v>153.69687500000001</v>
+        <v>-154.37728100000001</v>
       </c>
       <c r="AD49" s="4">
-        <v>0.77500000000000002</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="AE49" t="s">
         <v>19</v>
@@ -9345,13 +9336,13 @@
         <v>62</v>
       </c>
       <c r="AT49" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="AU49" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="AV49" s="4">
-        <v>14.071232999999999</v>
+        <v>12.725275</v>
       </c>
       <c r="AW49" t="s">
         <v>69</v>
@@ -9365,43 +9356,43 @@
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C50" s="1">
-        <v>5.5</v>
+        <v>1.8204</v>
       </c>
       <c r="D50" s="2">
-        <v>50126</v>
+        <v>49636</v>
       </c>
       <c r="E50" s="2">
-        <v>40995</v>
+        <v>38679</v>
       </c>
       <c r="F50" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="H50" t="s">
         <v>53</v>
       </c>
       <c r="I50" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s">
         <v>55</v>
       </c>
       <c r="K50" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L50" t="s">
         <v>57</v>
       </c>
       <c r="M50" s="3">
-        <v>499999999.84272003</v>
+        <v>49999999.822889999</v>
       </c>
       <c r="N50" t="s">
         <v>58</v>
@@ -9422,7 +9413,7 @@
         <v>60</v>
       </c>
       <c r="T50" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" t="s">
         <v>61</v>
@@ -9449,10 +9440,10 @@
         <v>19</v>
       </c>
       <c r="AC50" s="4">
-        <v>206.593932</v>
+        <v>-155.39905899999999</v>
       </c>
       <c r="AD50" s="4">
-        <v>0.878</v>
+        <v>2.1059999999999999</v>
       </c>
       <c r="AE50" t="s">
         <v>19</v>
@@ -9488,7 +9479,7 @@
         <v>19</v>
       </c>
       <c r="AP50" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ50" t="s">
         <v>19</v>
@@ -9500,13 +9491,13 @@
         <v>62</v>
       </c>
       <c r="AT50" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="AU50" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="AV50" s="4">
-        <v>14.167123</v>
+        <v>12.825967</v>
       </c>
       <c r="AW50" t="s">
         <v>69</v>
@@ -9520,25 +9511,25 @@
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>248</v>
+        <v>441</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="C51" s="1">
-        <v>5.75</v>
+        <v>1.6449</v>
       </c>
       <c r="D51" s="2">
-        <v>50213</v>
+        <v>49768</v>
       </c>
       <c r="E51" s="2">
-        <v>39253</v>
+        <v>38810</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="G51" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="H51" t="s">
         <v>53</v>
@@ -9556,7 +9547,7 @@
         <v>57</v>
       </c>
       <c r="M51" s="3">
-        <v>549999999.66560996</v>
+        <v>199999999.29155999</v>
       </c>
       <c r="N51" t="s">
         <v>58</v>
@@ -9577,7 +9568,7 @@
         <v>60</v>
       </c>
       <c r="T51" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U51" t="s">
         <v>61</v>
@@ -9592,10 +9583,10 @@
         <v>62</v>
       </c>
       <c r="Y51" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z51" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AA51" t="s">
         <v>75</v>
@@ -9604,16 +9595,16 @@
         <v>19</v>
       </c>
       <c r="AC51" s="4">
-        <v>170.11461399999999</v>
+        <v>-125.33748</v>
       </c>
       <c r="AD51" s="4">
-        <v>1.07</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="AE51" t="s">
         <v>19</v>
       </c>
       <c r="AF51" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG51" t="s">
         <v>19</v>
@@ -9622,7 +9613,7 @@
         <v>19</v>
       </c>
       <c r="AI51" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s">
         <v>19</v>
@@ -9655,13 +9646,13 @@
         <v>62</v>
       </c>
       <c r="AT51" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="AU51" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="AV51" s="4">
-        <v>14.405479</v>
+        <v>13.186813000000001</v>
       </c>
       <c r="AW51" t="s">
         <v>69</v>
@@ -9675,25 +9666,25 @@
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>441</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1">
-        <v>4.80436</v>
+        <v>1.6747000000000001</v>
       </c>
       <c r="D52" s="2">
-        <v>50395</v>
+        <v>49772</v>
       </c>
       <c r="E52" s="2">
-        <v>39072</v>
+        <v>38814</v>
       </c>
       <c r="F52" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="G52" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="H52" t="s">
         <v>53</v>
@@ -9711,7 +9702,7 @@
         <v>57</v>
       </c>
       <c r="M52" s="3">
-        <v>224999999.60646001</v>
+        <v>49999999.822889999</v>
       </c>
       <c r="N52" t="s">
         <v>58</v>
@@ -9732,7 +9723,7 @@
         <v>60</v>
       </c>
       <c r="T52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52" t="s">
         <v>61</v>
@@ -9759,16 +9750,16 @@
         <v>19</v>
       </c>
       <c r="AC52" s="4">
-        <v>143.99855099999999</v>
+        <v>-124.372591</v>
       </c>
       <c r="AD52" s="4">
-        <v>1.8</v>
+        <v>1.008</v>
       </c>
       <c r="AE52" t="s">
         <v>19</v>
       </c>
       <c r="AF52" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG52" t="s">
         <v>19</v>
@@ -9810,13 +9801,13 @@
         <v>62</v>
       </c>
       <c r="AT52" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="AU52" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="AV52" s="4">
-        <v>14.904109999999999</v>
+        <v>13.197801999999999</v>
       </c>
       <c r="AW52" t="s">
         <v>69</v>
@@ -9830,25 +9821,25 @@
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>441</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1">
-        <v>6.25</v>
+        <v>1.3740000000000001</v>
       </c>
       <c r="D53" s="2">
-        <v>50644</v>
+        <v>50076</v>
       </c>
       <c r="E53" s="2">
-        <v>39687</v>
+        <v>41310</v>
       </c>
       <c r="F53" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="G53" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H53" t="s">
         <v>53</v>
@@ -9866,7 +9857,7 @@
         <v>57</v>
       </c>
       <c r="M53" s="3">
-        <v>349999999.56713998</v>
+        <v>29999999.570969999</v>
       </c>
       <c r="N53" t="s">
         <v>58</v>
@@ -9887,7 +9878,7 @@
         <v>60</v>
       </c>
       <c r="T53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U53" t="s">
         <v>61</v>
@@ -9914,47 +9905,47 @@
         <v>19</v>
       </c>
       <c r="AC53" s="4">
-        <v>160.08900399999999</v>
+        <v>-179.57043200000001</v>
       </c>
       <c r="AD53" s="4">
-        <v>1.1080000000000001</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="AE53" t="s">
         <v>19</v>
       </c>
       <c r="AF53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP53" t="s">
         <v>66</v>
       </c>
-      <c r="AG53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP53" t="s">
-        <v>19</v>
-      </c>
       <c r="AQ53" t="s">
         <v>19</v>
       </c>
@@ -9965,13 +9956,13 @@
         <v>62</v>
       </c>
       <c r="AT53" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="AU53" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="AV53" s="4">
-        <v>15.586301000000001</v>
+        <v>14.029890999999999</v>
       </c>
       <c r="AW53" t="s">
         <v>69</v>
@@ -9985,10 +9976,10 @@
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" s="1">
         <v>1.208</v>
@@ -10000,10 +9991,10 @@
         <v>41513</v>
       </c>
       <c r="F54" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G54" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H54" t="s">
         <v>53</v>
@@ -10120,10 +10111,10 @@
         <v>62</v>
       </c>
       <c r="AT54" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AU54" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AV54" s="4">
         <v>15.589674</v>
@@ -10140,10 +10131,10 @@
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C55" s="1">
         <v>1.8055000000000001</v>
@@ -10155,10 +10146,10 @@
         <v>39177</v>
       </c>
       <c r="F55" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G55" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H55" t="s">
         <v>53</v>
@@ -10275,10 +10266,10 @@
         <v>62</v>
       </c>
       <c r="AT55" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AU55" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AV55" s="4">
         <v>16.002717000000001</v>
@@ -10295,25 +10286,25 @@
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>441</v>
       </c>
       <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.8574999999999999</v>
+      </c>
+      <c r="D56" s="2">
+        <v>50892</v>
+      </c>
+      <c r="E56" s="2">
+        <v>39182</v>
+      </c>
+      <c r="F56" t="s">
         <v>266</v>
       </c>
-      <c r="C56" s="1">
-        <v>6.875</v>
-      </c>
-      <c r="D56" s="2">
-        <v>50875</v>
-      </c>
-      <c r="E56" s="2">
-        <v>39918</v>
-      </c>
-      <c r="F56" t="s">
-        <v>267</v>
-      </c>
       <c r="G56" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H56" t="s">
         <v>53</v>
@@ -10331,7 +10322,7 @@
         <v>57</v>
       </c>
       <c r="M56" s="3">
-        <v>999999999.68544006</v>
+        <v>149999999.46867001</v>
       </c>
       <c r="N56" t="s">
         <v>58</v>
@@ -10352,7 +10343,7 @@
         <v>60</v>
       </c>
       <c r="T56" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U56" t="s">
         <v>61</v>
@@ -10379,10 +10370,10 @@
         <v>19</v>
       </c>
       <c r="AC56" s="4">
-        <v>127.23254</v>
+        <v>-137.28626299999999</v>
       </c>
       <c r="AD56" s="4">
-        <v>1.214</v>
+        <v>1.167</v>
       </c>
       <c r="AE56" t="s">
         <v>19</v>
@@ -10418,7 +10409,7 @@
         <v>19</v>
       </c>
       <c r="AP56" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ56" t="s">
         <v>19</v>
@@ -10430,13 +10421,13 @@
         <v>62</v>
       </c>
       <c r="AT56" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU56" t="s">
         <v>268</v>
       </c>
-      <c r="AU56" t="s">
-        <v>269</v>
-      </c>
       <c r="AV56" s="4">
-        <v>16.219177999999999</v>
+        <v>16.267956000000002</v>
       </c>
       <c r="AW56" t="s">
         <v>69</v>
@@ -10450,25 +10441,25 @@
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1">
-        <v>1.8574999999999999</v>
+        <v>2.4860000000000002</v>
       </c>
       <c r="D57" s="2">
-        <v>50892</v>
+        <v>50987</v>
       </c>
       <c r="E57" s="2">
-        <v>39182</v>
+        <v>40030</v>
       </c>
       <c r="F57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G57" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H57" t="s">
         <v>53</v>
@@ -10486,7 +10477,7 @@
         <v>57</v>
       </c>
       <c r="M57" s="3">
-        <v>149999999.46867001</v>
+        <v>24999999.507989999</v>
       </c>
       <c r="N57" t="s">
         <v>58</v>
@@ -10534,10 +10525,10 @@
         <v>19</v>
       </c>
       <c r="AC57" s="4">
-        <v>-137.28626299999999</v>
+        <v>-186.425916</v>
       </c>
       <c r="AD57" s="4">
-        <v>1.167</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="AE57" t="s">
         <v>19</v>
@@ -10585,13 +10576,13 @@
         <v>62</v>
       </c>
       <c r="AT57" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU57" t="s">
         <v>271</v>
       </c>
-      <c r="AU57" t="s">
-        <v>272</v>
-      </c>
       <c r="AV57" s="4">
-        <v>16.267956000000002</v>
+        <v>16.529890999999999</v>
       </c>
       <c r="AW57" t="s">
         <v>69</v>
@@ -10605,25 +10596,25 @@
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C58" s="1">
-        <v>2.4860000000000002</v>
+        <v>2.226</v>
       </c>
       <c r="D58" s="2">
-        <v>50987</v>
+        <v>51123</v>
       </c>
       <c r="E58" s="2">
-        <v>40030</v>
+        <v>43818</v>
       </c>
       <c r="F58" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G58" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H58" t="s">
         <v>53</v>
@@ -10641,7 +10632,7 @@
         <v>57</v>
       </c>
       <c r="M58" s="3">
-        <v>24999999.507989999</v>
+        <v>49999999.822889999</v>
       </c>
       <c r="N58" t="s">
         <v>58</v>
@@ -10662,7 +10653,7 @@
         <v>60</v>
       </c>
       <c r="T58" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U58" t="s">
         <v>61</v>
@@ -10688,11 +10679,11 @@
       <c r="AB58" t="s">
         <v>19</v>
       </c>
-      <c r="AC58" s="4">
-        <v>-186.425916</v>
-      </c>
-      <c r="AD58" s="4">
-        <v>0.74299999999999999</v>
+      <c r="AC58" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>19</v>
       </c>
       <c r="AE58" t="s">
         <v>19</v>
@@ -10728,7 +10719,7 @@
         <v>19</v>
       </c>
       <c r="AP58" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ58" t="s">
         <v>19</v>
@@ -10740,13 +10731,13 @@
         <v>62</v>
       </c>
       <c r="AT58" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AU58" t="s">
-        <v>275</v>
-      </c>
-      <c r="AV58" s="4">
-        <v>16.529890999999999</v>
+        <v>277</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>19</v>
       </c>
       <c r="AW58" t="s">
         <v>69</v>
@@ -10760,25 +10751,25 @@
     </row>
     <row r="59" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C59" s="1">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2">
-        <v>51113</v>
+        <v>51243</v>
       </c>
       <c r="E59" s="2">
-        <v>36503</v>
+        <v>43938</v>
       </c>
       <c r="F59" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H59" t="s">
         <v>53</v>
@@ -10796,7 +10787,7 @@
         <v>57</v>
       </c>
       <c r="M59" s="3">
-        <v>49999999.822889999</v>
+        <v>399999999.39003003</v>
       </c>
       <c r="N59" t="s">
         <v>58</v>
@@ -10817,7 +10808,7 @@
         <v>60</v>
       </c>
       <c r="T59" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U59" t="s">
         <v>61</v>
@@ -10838,53 +10829,53 @@
         <v>86</v>
       </c>
       <c r="AA59" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB59" t="s">
         <v>19</v>
       </c>
       <c r="AC59" s="4">
-        <v>155.25310500000001</v>
+        <v>130.36622800000001</v>
       </c>
       <c r="AD59" s="4">
-        <v>6</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="AE59" t="s">
         <v>19</v>
       </c>
       <c r="AF59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP59" t="s">
         <v>66</v>
       </c>
-      <c r="AG59" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL59" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM59" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN59" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO59" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP59" t="s">
-        <v>19</v>
-      </c>
       <c r="AQ59" t="s">
         <v>19</v>
       </c>
@@ -10895,13 +10886,13 @@
         <v>62</v>
       </c>
       <c r="AT59" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AU59" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AV59" s="4">
-        <v>16.870878999999999</v>
+        <v>17.224658000000002</v>
       </c>
       <c r="AW59" t="s">
         <v>69</v>
@@ -10915,25 +10906,25 @@
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="1">
-        <v>2.226</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="D60" s="2">
-        <v>51123</v>
+        <v>51372</v>
       </c>
       <c r="E60" s="2">
-        <v>43818</v>
+        <v>44067</v>
       </c>
       <c r="F60" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H60" t="s">
         <v>53</v>
@@ -10972,7 +10963,7 @@
         <v>60</v>
       </c>
       <c r="T60" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60" t="s">
         <v>61</v>
@@ -11044,16 +11035,16 @@
         <v>19</v>
       </c>
       <c r="AR60" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AS60" t="s">
         <v>62</v>
       </c>
       <c r="AT60" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AU60" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AV60" t="s">
         <v>19</v>
@@ -11070,25 +11061,25 @@
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>441</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C61" s="1">
-        <v>5.75</v>
+        <v>1.69</v>
       </c>
       <c r="D61" s="2">
-        <v>51218</v>
+        <v>51760</v>
       </c>
       <c r="E61" s="2">
-        <v>40260</v>
+        <v>44455</v>
       </c>
       <c r="F61" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H61" t="s">
         <v>53</v>
@@ -11106,7 +11097,7 @@
         <v>57</v>
       </c>
       <c r="M61" s="3">
-        <v>199999999.29155999</v>
+        <v>49999999.822889999</v>
       </c>
       <c r="N61" t="s">
         <v>58</v>
@@ -11153,11 +11144,11 @@
       <c r="AB61" t="s">
         <v>19</v>
       </c>
-      <c r="AC61" s="4">
-        <v>148.68805699999999</v>
-      </c>
-      <c r="AD61" s="4">
-        <v>1.18</v>
+      <c r="AC61" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>19</v>
       </c>
       <c r="AE61" t="s">
         <v>19</v>
@@ -11169,7 +11160,7 @@
         <v>19</v>
       </c>
       <c r="AH61" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AI61" t="s">
         <v>19</v>
@@ -11193,25 +11184,25 @@
         <v>19</v>
       </c>
       <c r="AP61" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ61" t="s">
         <v>19</v>
       </c>
       <c r="AR61" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AS61" t="s">
         <v>62</v>
       </c>
       <c r="AT61" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AU61" t="s">
-        <v>284</v>
-      </c>
-      <c r="AV61" s="4">
-        <v>17.156164</v>
+        <v>290</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>19</v>
       </c>
       <c r="AW61" t="s">
         <v>69</v>
@@ -11225,22 +11216,22 @@
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C62" s="1">
-        <v>5.75</v>
+        <v>5.69</v>
       </c>
       <c r="D62" s="2">
-        <v>51218</v>
+        <v>52139</v>
       </c>
       <c r="E62" s="2">
-        <v>40260</v>
+        <v>44834</v>
       </c>
       <c r="F62" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="G62" t="s">
         <v>423</v>
@@ -11261,7 +11252,7 @@
         <v>57</v>
       </c>
       <c r="M62" s="3">
-        <v>199999999.29155999</v>
+        <v>49326347.781750001</v>
       </c>
       <c r="N62" t="s">
         <v>58</v>
@@ -11282,7 +11273,7 @@
         <v>60</v>
       </c>
       <c r="T62" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U62" t="s">
         <v>61</v>
@@ -11308,17 +11299,17 @@
       <c r="AB62" t="s">
         <v>19</v>
       </c>
-      <c r="AC62" s="4">
-        <v>148.781667</v>
-      </c>
-      <c r="AD62" s="4">
-        <v>1.252</v>
+      <c r="AC62" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>19</v>
       </c>
       <c r="AE62" t="s">
         <v>19</v>
       </c>
       <c r="AF62" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG62" t="s">
         <v>19</v>
@@ -11360,13 +11351,13 @@
         <v>62</v>
       </c>
       <c r="AT62" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AU62" t="s">
-        <v>284</v>
-      </c>
-      <c r="AV62" s="4">
-        <v>17.156164</v>
+        <v>296</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>19</v>
       </c>
       <c r="AW62" t="s">
         <v>69</v>
@@ -11380,25 +11371,25 @@
     </row>
     <row r="63" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>1.823</v>
       </c>
       <c r="D63" s="2">
-        <v>51243</v>
+        <v>57126</v>
       </c>
       <c r="E63" s="2">
-        <v>43938</v>
+        <v>38863</v>
       </c>
       <c r="F63" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="G63" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H63" t="s">
         <v>53</v>
@@ -11416,7 +11407,7 @@
         <v>57</v>
       </c>
       <c r="M63" s="3">
-        <v>399999999.39003003</v>
+        <v>149999999.46867001</v>
       </c>
       <c r="N63" t="s">
         <v>58</v>
@@ -11437,7 +11428,7 @@
         <v>60</v>
       </c>
       <c r="T63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U63" t="s">
         <v>61</v>
@@ -11464,10 +11455,10 @@
         <v>19</v>
       </c>
       <c r="AC63" s="4">
-        <v>130.36622800000001</v>
+        <v>-167.05317199999999</v>
       </c>
       <c r="AD63" s="4">
-        <v>0.76400000000000001</v>
+        <v>1.218</v>
       </c>
       <c r="AE63" t="s">
         <v>19</v>
@@ -11503,7 +11494,7 @@
         <v>19</v>
       </c>
       <c r="AP63" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ63" t="s">
         <v>19</v>
@@ -11515,13 +11506,13 @@
         <v>62</v>
       </c>
       <c r="AT63" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="AU63" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="AV63" s="4">
-        <v>17.224658000000002</v>
+        <v>33.334254000000001</v>
       </c>
       <c r="AW63" t="s">
         <v>69</v>
@@ -11535,25 +11526,25 @@
     </row>
     <row r="64" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C64" s="1">
-        <v>1.6080000000000001</v>
+        <v>1.7969999999999999</v>
       </c>
       <c r="D64" s="2">
-        <v>51372</v>
+        <v>57175</v>
       </c>
       <c r="E64" s="2">
-        <v>44067</v>
+        <v>38912</v>
       </c>
       <c r="F64" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="G64" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="H64" t="s">
         <v>53</v>
@@ -11618,11 +11609,11 @@
       <c r="AB64" t="s">
         <v>19</v>
       </c>
-      <c r="AC64" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>19</v>
+      <c r="AC64" s="4">
+        <v>-166.36098200000001</v>
+      </c>
+      <c r="AD64" s="4">
+        <v>1.2170000000000001</v>
       </c>
       <c r="AE64" t="s">
         <v>19</v>
@@ -11658,25 +11649,25 @@
         <v>19</v>
       </c>
       <c r="AP64" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ64" t="s">
         <v>19</v>
       </c>
       <c r="AR64" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AS64" t="s">
         <v>62</v>
       </c>
       <c r="AT64" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="AU64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AV64" t="s">
-        <v>19</v>
+        <v>322</v>
+      </c>
+      <c r="AV64" s="4">
+        <v>33.469613000000003</v>
       </c>
       <c r="AW64" t="s">
         <v>69</v>
@@ -11690,25 +11681,25 @@
     </row>
     <row r="65" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C65" s="1">
-        <v>1.69</v>
+        <v>1.5842000000000001</v>
       </c>
       <c r="D65" s="2">
-        <v>51760</v>
+        <v>57189</v>
       </c>
       <c r="E65" s="2">
-        <v>44455</v>
+        <v>38926</v>
       </c>
       <c r="F65" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="G65" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="H65" t="s">
         <v>53</v>
@@ -11726,7 +11717,7 @@
         <v>57</v>
       </c>
       <c r="M65" s="3">
-        <v>49999999.822889999</v>
+        <v>24999999.507989999</v>
       </c>
       <c r="N65" t="s">
         <v>58</v>
@@ -11747,7 +11738,7 @@
         <v>60</v>
       </c>
       <c r="T65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U65" t="s">
         <v>61</v>
@@ -11773,23 +11764,23 @@
       <c r="AB65" t="s">
         <v>19</v>
       </c>
-      <c r="AC65" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>19</v>
+      <c r="AC65" s="4">
+        <v>-165.79100099999999</v>
+      </c>
+      <c r="AD65" s="4">
+        <v>1.1779999999999999</v>
       </c>
       <c r="AE65" t="s">
         <v>19</v>
       </c>
       <c r="AF65" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG65" t="s">
         <v>19</v>
       </c>
       <c r="AH65" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AI65" t="s">
         <v>19</v>
@@ -11813,25 +11804,25 @@
         <v>19</v>
       </c>
       <c r="AP65" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ65" t="s">
         <v>19</v>
       </c>
       <c r="AR65" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AS65" t="s">
         <v>62</v>
       </c>
       <c r="AT65" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="AU65" t="s">
-        <v>294</v>
-      </c>
-      <c r="AV65" t="s">
-        <v>19</v>
+        <v>325</v>
+      </c>
+      <c r="AV65" s="4">
+        <v>33.508152000000003</v>
       </c>
       <c r="AW65" t="s">
         <v>69</v>
@@ -11845,25 +11836,25 @@
     </row>
     <row r="66" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C66" s="1">
-        <v>5.5</v>
+        <v>1.6574</v>
       </c>
       <c r="D66" s="2">
-        <v>51791</v>
+        <v>57189</v>
       </c>
       <c r="E66" s="2">
-        <v>40833</v>
+        <v>38926</v>
       </c>
       <c r="F66" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G66" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H66" t="s">
         <v>53</v>
@@ -11881,7 +11872,7 @@
         <v>57</v>
       </c>
       <c r="M66" s="3">
-        <v>1499999999.5281601</v>
+        <v>49999999.822889999</v>
       </c>
       <c r="N66" t="s">
         <v>58</v>
@@ -11902,7 +11893,7 @@
         <v>60</v>
       </c>
       <c r="T66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U66" t="s">
         <v>61</v>
@@ -11929,16 +11920,16 @@
         <v>19</v>
       </c>
       <c r="AC66" s="4">
-        <v>204.63826</v>
+        <v>-165.931352</v>
       </c>
       <c r="AD66" s="4">
-        <v>0.98199999999999998</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="AE66" t="s">
         <v>19</v>
       </c>
       <c r="AF66" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG66" t="s">
         <v>19</v>
@@ -11980,45 +11971,45 @@
         <v>62</v>
       </c>
       <c r="AT66" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="AU66" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="AV66" s="4">
-        <v>18.726026999999998</v>
+        <v>33.508152000000003</v>
       </c>
       <c r="AW66" t="s">
         <v>69</v>
       </c>
       <c r="AX66" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AY66" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C67" s="1">
-        <v>5.69</v>
+        <v>1.6919999999999999</v>
       </c>
       <c r="D67" s="2">
-        <v>52139</v>
+        <v>57188</v>
       </c>
       <c r="E67" s="2">
-        <v>44834</v>
+        <v>38925</v>
       </c>
       <c r="F67" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="G67" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="H67" t="s">
         <v>53</v>
@@ -12036,7 +12027,7 @@
         <v>57</v>
       </c>
       <c r="M67" s="3">
-        <v>49326347.781750001</v>
+        <v>24663173.48742</v>
       </c>
       <c r="N67" t="s">
         <v>58</v>
@@ -12135,10 +12126,10 @@
         <v>62</v>
       </c>
       <c r="AT67" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="AU67" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="AV67" t="s">
         <v>19</v>
@@ -12155,25 +12146,25 @@
     </row>
     <row r="68" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>301</v>
+        <v>441</v>
       </c>
       <c r="B68" t="s">
-        <v>302</v>
+        <v>119</v>
       </c>
       <c r="C68" s="1">
-        <v>2.6709999999999998</v>
+        <v>1.819</v>
       </c>
       <c r="D68" s="2">
-        <v>52383</v>
+        <v>57111</v>
       </c>
       <c r="E68" s="2">
-        <v>40695</v>
+        <v>38848</v>
       </c>
       <c r="F68" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="G68" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H68" t="s">
         <v>53</v>
@@ -12191,7 +12182,7 @@
         <v>57</v>
       </c>
       <c r="M68" s="3">
-        <v>139999999.34270999</v>
+        <v>49999999.822889999</v>
       </c>
       <c r="N68" t="s">
         <v>58</v>
@@ -12239,16 +12230,16 @@
         <v>19</v>
       </c>
       <c r="AC68" s="4">
-        <v>-182.384334</v>
+        <v>-167.198757</v>
       </c>
       <c r="AD68" s="4">
-        <v>1.982</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="AE68" t="s">
         <v>19</v>
       </c>
       <c r="AF68" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG68" t="s">
         <v>19</v>
@@ -12278,7 +12269,7 @@
         <v>19</v>
       </c>
       <c r="AP68" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ68" t="s">
         <v>19</v>
@@ -12290,45 +12281,45 @@
         <v>62</v>
       </c>
       <c r="AT68" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="AU68" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="AV68" s="4">
-        <v>20.348901000000001</v>
+        <v>33.292817999999997</v>
       </c>
       <c r="AW68" t="s">
         <v>69</v>
       </c>
       <c r="AX68" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AY68" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C69" s="1">
-        <v>4.25</v>
+        <v>4.375</v>
       </c>
       <c r="D69" s="2">
-        <v>52852</v>
+        <v>48400</v>
       </c>
       <c r="E69" s="2">
-        <v>41164</v>
+        <v>41095</v>
       </c>
       <c r="F69" t="s">
-        <v>306</v>
+        <v>185</v>
       </c>
       <c r="G69" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="H69" t="s">
         <v>53</v>
@@ -12340,13 +12331,13 @@
         <v>55</v>
       </c>
       <c r="K69" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="L69" t="s">
         <v>57</v>
       </c>
       <c r="M69" s="3">
-        <v>549999999.66560996</v>
+        <v>149999999.46867001</v>
       </c>
       <c r="N69" t="s">
         <v>58</v>
@@ -12388,22 +12379,22 @@
         <v>86</v>
       </c>
       <c r="AA69" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="AB69" t="s">
         <v>19</v>
       </c>
       <c r="AC69" s="4">
-        <v>185.56971899999999</v>
+        <v>136.84643399999999</v>
       </c>
       <c r="AD69" s="4">
-        <v>1.069</v>
+        <v>0.375</v>
       </c>
       <c r="AE69" t="s">
         <v>19</v>
       </c>
       <c r="AF69" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG69" t="s">
         <v>19</v>
@@ -12439,51 +12430,51 @@
         <v>19</v>
       </c>
       <c r="AR69" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AS69" t="s">
         <v>62</v>
       </c>
       <c r="AT69" t="s">
-        <v>307</v>
+        <v>186</v>
       </c>
       <c r="AU69" t="s">
-        <v>308</v>
+        <v>187</v>
       </c>
       <c r="AV69" s="4">
-        <v>21.630137000000001</v>
+        <v>9.4410959999999999</v>
       </c>
       <c r="AW69" t="s">
         <v>69</v>
       </c>
       <c r="AX69" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AY69" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="C70" s="1">
-        <v>1.4745999999999999</v>
+        <v>5.125</v>
       </c>
       <c r="D70" s="2">
-        <v>53423</v>
+        <v>49433</v>
       </c>
       <c r="E70" s="2">
-        <v>38813</v>
+        <v>38477</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>203</v>
       </c>
       <c r="G70" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="H70" t="s">
         <v>53</v>
@@ -12495,13 +12486,13 @@
         <v>55</v>
       </c>
       <c r="K70" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="L70" t="s">
         <v>57</v>
       </c>
       <c r="M70" s="3">
-        <v>99999999.645779997</v>
+        <v>199999999.29155999</v>
       </c>
       <c r="N70" t="s">
         <v>58</v>
@@ -12522,7 +12513,7 @@
         <v>60</v>
       </c>
       <c r="T70" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U70" t="s">
         <v>61</v>
@@ -12537,28 +12528,28 @@
         <v>62</v>
       </c>
       <c r="Y70" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Z70" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AA70" t="s">
         <v>75</v>
       </c>
       <c r="AB70" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="AC70" s="4">
-        <v>-139.71313900000001</v>
+        <v>138.576245</v>
       </c>
       <c r="AD70" s="4">
-        <v>1.492</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="AE70" t="s">
         <v>19</v>
       </c>
       <c r="AF70" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG70" t="s">
         <v>19</v>
@@ -12600,16 +12591,16 @@
         <v>62</v>
       </c>
       <c r="AT70" t="s">
-        <v>310</v>
+        <v>204</v>
       </c>
       <c r="AU70" t="s">
-        <v>311</v>
+        <v>205</v>
       </c>
       <c r="AV70" s="4">
-        <v>23.195055</v>
+        <v>12.275</v>
       </c>
       <c r="AW70" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="AX70" t="s">
         <v>78</v>
@@ -12620,25 +12611,25 @@
     </row>
     <row r="71" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>332</v>
       </c>
       <c r="C71" s="1">
-        <v>5.125</v>
+        <v>1.429</v>
       </c>
       <c r="D71" s="2">
-        <v>55053</v>
+        <v>57273</v>
       </c>
       <c r="E71" s="2">
-        <v>40443</v>
+        <v>39010</v>
       </c>
       <c r="F71" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="G71" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="H71" t="s">
         <v>53</v>
@@ -12656,7 +12647,7 @@
         <v>57</v>
       </c>
       <c r="M71" s="3">
-        <v>999999999.68544006</v>
+        <v>99999999.645779997</v>
       </c>
       <c r="N71" t="s">
         <v>58</v>
@@ -12677,7 +12668,7 @@
         <v>60</v>
       </c>
       <c r="T71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U71" t="s">
         <v>61</v>
@@ -12701,13 +12692,13 @@
         <v>75</v>
       </c>
       <c r="AB71" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="AC71" s="4">
-        <v>202.081413</v>
+        <v>-143.19854799999999</v>
       </c>
       <c r="AD71" s="4">
-        <v>1.151</v>
+        <v>1.08</v>
       </c>
       <c r="AE71" t="s">
         <v>19</v>
@@ -12755,16 +12746,16 @@
         <v>62</v>
       </c>
       <c r="AT71" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="AU71" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="AV71" s="4">
-        <v>27.657533999999998</v>
+        <v>33.732877000000002</v>
       </c>
       <c r="AW71" t="s">
-        <v>69</v>
+        <v>336</v>
       </c>
       <c r="AX71" t="s">
         <v>78</v>
@@ -12775,25 +12766,25 @@
     </row>
     <row r="72" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>301</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>51</v>
       </c>
       <c r="C72" s="1">
-        <v>1.6759999999999999</v>
+        <v>3.4940000000000002</v>
       </c>
       <c r="D72" s="2">
-        <v>55786</v>
+        <v>45578</v>
       </c>
       <c r="E72" s="2">
-        <v>41541</v>
+        <v>36812</v>
       </c>
       <c r="F72" t="s">
-        <v>315</v>
+        <v>52</v>
       </c>
       <c r="G72" t="s">
-        <v>433</v>
+        <v>359</v>
       </c>
       <c r="H72" t="s">
         <v>53</v>
@@ -12811,7 +12802,7 @@
         <v>57</v>
       </c>
       <c r="M72" s="3">
-        <v>104999999.70876001</v>
+        <v>174999999.78356999</v>
       </c>
       <c r="N72" t="s">
         <v>58</v>
@@ -12847,28 +12838,28 @@
         <v>62</v>
       </c>
       <c r="Y72" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Z72" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AA72" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB72" t="s">
         <v>19</v>
       </c>
       <c r="AC72" s="4">
-        <v>-151.89975100000001</v>
+        <v>-49.393236000000002</v>
       </c>
       <c r="AD72" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AE72" t="s">
         <v>19</v>
       </c>
       <c r="AF72" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG72" t="s">
         <v>19</v>
@@ -12898,7 +12889,7 @@
         <v>19</v>
       </c>
       <c r="AP72" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ72" t="s">
         <v>19</v>
@@ -12910,13 +12901,13 @@
         <v>62</v>
       </c>
       <c r="AT72" t="s">
-        <v>316</v>
+        <v>67</v>
       </c>
       <c r="AU72" t="s">
-        <v>317</v>
+        <v>68</v>
       </c>
       <c r="AV72" s="4">
-        <v>29.660221</v>
+        <v>1.717033</v>
       </c>
       <c r="AW72" t="s">
         <v>69</v>
@@ -12930,25 +12921,25 @@
     </row>
     <row r="73" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C73" s="1">
-        <v>1.5409999999999999</v>
+        <v>5.75</v>
       </c>
       <c r="D73" s="2">
-        <v>56219</v>
+        <v>51113</v>
       </c>
       <c r="E73" s="2">
-        <v>39052</v>
+        <v>36503</v>
       </c>
       <c r="F73" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="G73" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="H73" t="s">
         <v>53</v>
@@ -12966,7 +12957,7 @@
         <v>57</v>
       </c>
       <c r="M73" s="3">
-        <v>104999999.70876001</v>
+        <v>49999999.822889999</v>
       </c>
       <c r="N73" t="s">
         <v>58</v>
@@ -13002,22 +12993,22 @@
         <v>62</v>
       </c>
       <c r="Y73" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z73" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AA73" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB73" t="s">
         <v>19</v>
       </c>
       <c r="AC73" s="4">
-        <v>-141.504278</v>
+        <v>155.25310500000001</v>
       </c>
       <c r="AD73" s="4">
-        <v>0.999</v>
+        <v>6</v>
       </c>
       <c r="AE73" t="s">
         <v>19</v>
@@ -13065,13 +13056,13 @@
         <v>62</v>
       </c>
       <c r="AT73" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="AU73" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="AV73" s="4">
-        <v>30.848901000000001</v>
+        <v>16.870878999999999</v>
       </c>
       <c r="AW73" t="s">
         <v>69</v>
@@ -13085,25 +13076,25 @@
     </row>
     <row r="74" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>341</v>
       </c>
       <c r="C74" s="1">
-        <v>1.5409999999999999</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="D74" s="2">
-        <v>56219</v>
+        <v>57923</v>
       </c>
       <c r="E74" s="2">
-        <v>39052</v>
+        <v>39269</v>
       </c>
       <c r="F74" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="G74" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H74" t="s">
         <v>53</v>
@@ -13115,16 +13106,16 @@
         <v>55</v>
       </c>
       <c r="K74" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L74" t="s">
         <v>57</v>
       </c>
       <c r="M74" s="3">
-        <v>104999999.70876001</v>
+        <v>49999999.822889999</v>
       </c>
       <c r="N74" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O74" t="s">
         <v>59</v>
@@ -13142,7 +13133,7 @@
         <v>60</v>
       </c>
       <c r="T74" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U74" t="s">
         <v>61</v>
@@ -13157,22 +13148,22 @@
         <v>62</v>
       </c>
       <c r="Y74" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Z74" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AA74" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="AB74" t="s">
         <v>19</v>
       </c>
-      <c r="AC74" s="4">
-        <v>-170.92733899999999</v>
-      </c>
-      <c r="AD74" s="4">
-        <v>1.0860000000000001</v>
+      <c r="AC74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>19</v>
       </c>
       <c r="AE74" t="s">
         <v>19</v>
@@ -13220,16 +13211,16 @@
         <v>62</v>
       </c>
       <c r="AT74" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="AU74" t="s">
-        <v>320</v>
-      </c>
-      <c r="AV74" s="4">
-        <v>30.848901000000001</v>
+        <v>345</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>19</v>
       </c>
       <c r="AW74" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="AX74" t="s">
         <v>78</v>
@@ -13240,25 +13231,25 @@
     </row>
     <row r="75" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C75" s="1">
-        <v>1.823</v>
+        <v>0.25</v>
       </c>
       <c r="D75" s="2">
-        <v>57126</v>
+        <v>45701</v>
       </c>
       <c r="E75" s="2">
-        <v>38863</v>
+        <v>42048</v>
       </c>
       <c r="F75" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="G75" t="s">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="H75" t="s">
         <v>53</v>
@@ -13276,7 +13267,7 @@
         <v>57</v>
       </c>
       <c r="M75" s="3">
-        <v>149999999.46867001</v>
+        <v>24999999.507989999</v>
       </c>
       <c r="N75" t="s">
         <v>58</v>
@@ -13312,10 +13303,10 @@
         <v>62</v>
       </c>
       <c r="Y75" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Z75" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AA75" t="s">
         <v>75</v>
@@ -13324,10 +13315,10 @@
         <v>19</v>
       </c>
       <c r="AC75" s="4">
-        <v>-167.05317199999999</v>
+        <v>-181.08698799999999</v>
       </c>
       <c r="AD75" s="4">
-        <v>1.218</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AE75" t="s">
         <v>19</v>
@@ -13363,7 +13354,7 @@
         <v>19</v>
       </c>
       <c r="AP75" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ75" t="s">
         <v>19</v>
@@ -13375,13 +13366,13 @@
         <v>62</v>
       </c>
       <c r="AT75" t="s">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AU75" t="s">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AV75" s="4">
-        <v>33.334254000000001</v>
+        <v>2.0516299999999998</v>
       </c>
       <c r="AW75" t="s">
         <v>69</v>
@@ -13395,25 +13386,25 @@
     </row>
     <row r="76" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C76" s="1">
-        <v>1.7969999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="D76" s="2">
-        <v>57175</v>
+        <v>46178</v>
       </c>
       <c r="E76" s="2">
-        <v>38912</v>
+        <v>37777</v>
       </c>
       <c r="F76" t="s">
-        <v>325</v>
+        <v>101</v>
       </c>
       <c r="G76" t="s">
-        <v>437</v>
+        <v>366</v>
       </c>
       <c r="H76" t="s">
         <v>53</v>
@@ -13431,7 +13422,7 @@
         <v>57</v>
       </c>
       <c r="M76" s="3">
-        <v>49999999.822889999</v>
+        <v>299999999.74425</v>
       </c>
       <c r="N76" t="s">
         <v>58</v>
@@ -13452,7 +13443,7 @@
         <v>60</v>
       </c>
       <c r="T76" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U76" t="s">
         <v>61</v>
@@ -13479,16 +13470,16 @@
         <v>19</v>
       </c>
       <c r="AC76" s="4">
-        <v>-166.36098200000001</v>
+        <v>125.879903</v>
       </c>
       <c r="AD76" s="4">
-        <v>1.2170000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="AE76" t="s">
         <v>19</v>
       </c>
       <c r="AF76" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG76" t="s">
         <v>19</v>
@@ -13530,13 +13521,13 @@
         <v>62</v>
       </c>
       <c r="AT76" t="s">
-        <v>326</v>
+        <v>102</v>
       </c>
       <c r="AU76" t="s">
-        <v>327</v>
+        <v>103</v>
       </c>
       <c r="AV76" s="4">
-        <v>33.469613000000003</v>
+        <v>3.3589039999999999</v>
       </c>
       <c r="AW76" t="s">
         <v>69</v>
@@ -13550,25 +13541,25 @@
     </row>
     <row r="77" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C77" s="1">
-        <v>1.5842000000000001</v>
+        <v>5.625</v>
       </c>
       <c r="D77" s="2">
-        <v>57189</v>
+        <v>47756</v>
       </c>
       <c r="E77" s="2">
-        <v>38926</v>
+        <v>40711</v>
       </c>
       <c r="F77" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
       <c r="G77" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="H77" t="s">
         <v>53</v>
@@ -13586,7 +13577,7 @@
         <v>57</v>
       </c>
       <c r="M77" s="3">
-        <v>24999999.507989999</v>
+        <v>299999999.74425</v>
       </c>
       <c r="N77" t="s">
         <v>58</v>
@@ -13607,7 +13598,7 @@
         <v>60</v>
       </c>
       <c r="T77" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U77" t="s">
         <v>61</v>
@@ -13634,16 +13625,16 @@
         <v>19</v>
       </c>
       <c r="AC77" s="4">
-        <v>-165.79100099999999</v>
+        <v>139.01681199999999</v>
       </c>
       <c r="AD77" s="4">
-        <v>1.1779999999999999</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="AE77" t="s">
         <v>19</v>
       </c>
       <c r="AF77" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG77" t="s">
         <v>19</v>
@@ -13685,45 +13676,45 @@
         <v>62</v>
       </c>
       <c r="AT77" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
       <c r="AU77" t="s">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="AV77" s="4">
-        <v>33.508152000000003</v>
+        <v>7.6794520000000004</v>
       </c>
       <c r="AW77" t="s">
         <v>69</v>
       </c>
       <c r="AX77" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AY77" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C78" s="1">
-        <v>1.6574</v>
+        <v>5.5</v>
       </c>
       <c r="D78" s="2">
-        <v>57189</v>
+        <v>48372</v>
       </c>
       <c r="E78" s="2">
-        <v>38926</v>
+        <v>37244</v>
       </c>
       <c r="F78" t="s">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="G78" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="H78" t="s">
         <v>53</v>
@@ -13741,7 +13732,7 @@
         <v>57</v>
       </c>
       <c r="M78" s="3">
-        <v>49999999.822889999</v>
+        <v>349999999.56713998</v>
       </c>
       <c r="N78" t="s">
         <v>58</v>
@@ -13762,7 +13753,7 @@
         <v>60</v>
       </c>
       <c r="T78" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U78" t="s">
         <v>61</v>
@@ -13789,16 +13780,16 @@
         <v>19</v>
       </c>
       <c r="AC78" s="4">
-        <v>-165.931352</v>
+        <v>136.41097400000001</v>
       </c>
       <c r="AD78" s="4">
-        <v>1.1910000000000001</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="AE78" t="s">
         <v>19</v>
       </c>
       <c r="AF78" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG78" t="s">
         <v>19</v>
@@ -13840,45 +13831,45 @@
         <v>62</v>
       </c>
       <c r="AT78" t="s">
-        <v>329</v>
+        <v>182</v>
       </c>
       <c r="AU78" t="s">
-        <v>330</v>
+        <v>117</v>
       </c>
       <c r="AV78" s="4">
-        <v>33.508152000000003</v>
+        <v>9.3643839999999994</v>
       </c>
       <c r="AW78" t="s">
         <v>69</v>
       </c>
       <c r="AX78" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AY78" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C79" s="1">
-        <v>1.6919999999999999</v>
+        <v>4.625</v>
       </c>
       <c r="D79" s="2">
-        <v>57188</v>
+        <v>50091</v>
       </c>
       <c r="E79" s="2">
-        <v>38925</v>
+        <v>38768</v>
       </c>
       <c r="F79" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
       <c r="G79" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="H79" t="s">
         <v>53</v>
@@ -13890,13 +13881,13 @@
         <v>55</v>
       </c>
       <c r="K79" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="L79" t="s">
         <v>57</v>
       </c>
       <c r="M79" s="3">
-        <v>24663173.48742</v>
+        <v>324999999.25224</v>
       </c>
       <c r="N79" t="s">
         <v>58</v>
@@ -13917,7 +13908,7 @@
         <v>60</v>
       </c>
       <c r="T79" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U79" t="s">
         <v>61</v>
@@ -13943,17 +13934,17 @@
       <c r="AB79" t="s">
         <v>19</v>
       </c>
-      <c r="AC79" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>19</v>
+      <c r="AC79" s="4">
+        <v>146.95830900000001</v>
+      </c>
+      <c r="AD79" s="4">
+        <v>0.91900000000000004</v>
       </c>
       <c r="AE79" t="s">
         <v>19</v>
       </c>
       <c r="AF79" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG79" t="s">
         <v>19</v>
@@ -13995,13 +13986,13 @@
         <v>62</v>
       </c>
       <c r="AT79" t="s">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="AU79" t="s">
-        <v>334</v>
-      </c>
-      <c r="AV79" t="s">
-        <v>19</v>
+        <v>238</v>
+      </c>
+      <c r="AV79" s="4">
+        <v>14.071232999999999</v>
       </c>
       <c r="AW79" t="s">
         <v>69</v>
@@ -14015,25 +14006,25 @@
     </row>
     <row r="80" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C80" s="1">
-        <v>1.5409999999999999</v>
+        <v>4.625</v>
       </c>
       <c r="D80" s="2">
-        <v>57315</v>
+        <v>50091</v>
       </c>
       <c r="E80" s="2">
-        <v>39052</v>
+        <v>38768</v>
       </c>
       <c r="F80" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
       <c r="G80" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="H80" t="s">
         <v>53</v>
@@ -14051,10 +14042,10 @@
         <v>57</v>
       </c>
       <c r="M80" s="3">
-        <v>119999999.8977</v>
+        <v>19999999.445009999</v>
       </c>
       <c r="N80" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O80" t="s">
         <v>59</v>
@@ -14072,7 +14063,7 @@
         <v>60</v>
       </c>
       <c r="T80" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U80" t="s">
         <v>61</v>
@@ -14087,10 +14078,10 @@
         <v>62</v>
       </c>
       <c r="Y80" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z80" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AA80" t="s">
         <v>75</v>
@@ -14099,16 +14090,16 @@
         <v>19</v>
       </c>
       <c r="AC80" s="4">
-        <v>-160.809641</v>
+        <v>153.69687500000001</v>
       </c>
       <c r="AD80" s="4">
-        <v>3</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="AE80" t="s">
         <v>19</v>
       </c>
       <c r="AF80" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG80" t="s">
         <v>19</v>
@@ -14150,13 +14141,13 @@
         <v>62</v>
       </c>
       <c r="AT80" t="s">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="AU80" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="AV80" s="4">
-        <v>33.848900999999998</v>
+        <v>14.071232999999999</v>
       </c>
       <c r="AW80" t="s">
         <v>69</v>
@@ -14170,25 +14161,25 @@
     </row>
     <row r="81" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>336</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>337</v>
+        <v>105</v>
       </c>
       <c r="C81" s="1">
-        <v>1.429</v>
+        <v>5.875</v>
       </c>
       <c r="D81" s="2">
-        <v>57273</v>
+        <v>46220</v>
       </c>
       <c r="E81" s="2">
-        <v>39010</v>
+        <v>40742</v>
       </c>
       <c r="F81" t="s">
-        <v>338</v>
+        <v>106</v>
       </c>
       <c r="G81" t="s">
-        <v>442</v>
+        <v>367</v>
       </c>
       <c r="H81" t="s">
         <v>53</v>
@@ -14206,7 +14197,7 @@
         <v>57</v>
       </c>
       <c r="M81" s="3">
-        <v>99999999.645779997</v>
+        <v>349999999.56713998</v>
       </c>
       <c r="N81" t="s">
         <v>58</v>
@@ -14227,7 +14218,7 @@
         <v>60</v>
       </c>
       <c r="T81" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U81" t="s">
         <v>61</v>
@@ -14254,16 +14245,16 @@
         <v>107</v>
       </c>
       <c r="AC81" s="4">
-        <v>-143.19854799999999</v>
+        <v>141.433155</v>
       </c>
       <c r="AD81" s="4">
-        <v>1.08</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="AE81" t="s">
         <v>19</v>
       </c>
       <c r="AF81" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AG81" t="s">
         <v>19</v>
@@ -14305,16 +14296,16 @@
         <v>62</v>
       </c>
       <c r="AT81" t="s">
-        <v>339</v>
+        <v>108</v>
       </c>
       <c r="AU81" t="s">
-        <v>340</v>
+        <v>109</v>
       </c>
       <c r="AV81" s="4">
-        <v>33.732877000000002</v>
+        <v>3.473973</v>
       </c>
       <c r="AW81" t="s">
-        <v>341</v>
+        <v>69</v>
       </c>
       <c r="AX81" t="s">
         <v>78</v>
@@ -14325,25 +14316,25 @@
     </row>
     <row r="82" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B82" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C82" s="1">
-        <v>1.819</v>
+        <v>4.875</v>
       </c>
       <c r="D82" s="2">
-        <v>57111</v>
+        <v>46650</v>
       </c>
       <c r="E82" s="2">
-        <v>38848</v>
+        <v>41172</v>
       </c>
       <c r="F82" t="s">
-        <v>342</v>
+        <v>125</v>
       </c>
       <c r="G82" t="s">
-        <v>443</v>
+        <v>371</v>
       </c>
       <c r="H82" t="s">
         <v>53</v>
@@ -14361,7 +14352,7 @@
         <v>57</v>
       </c>
       <c r="M82" s="3">
-        <v>49999999.822889999</v>
+        <v>349999999.56713998</v>
       </c>
       <c r="N82" t="s">
         <v>58</v>
@@ -14382,7 +14373,7 @@
         <v>60</v>
       </c>
       <c r="T82" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U82" t="s">
         <v>61</v>
@@ -14409,16 +14400,16 @@
         <v>19</v>
       </c>
       <c r="AC82" s="4">
-        <v>-167.198757</v>
+        <v>123.21193700000001</v>
       </c>
       <c r="AD82" s="4">
-        <v>2.4510000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="AE82" t="s">
         <v>19</v>
       </c>
       <c r="AF82" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG82" t="s">
         <v>19</v>
@@ -14448,7 +14439,7 @@
         <v>19</v>
       </c>
       <c r="AP82" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ82" t="s">
         <v>19</v>
@@ -14460,13 +14451,13 @@
         <v>62</v>
       </c>
       <c r="AT82" t="s">
-        <v>343</v>
+        <v>126</v>
       </c>
       <c r="AU82" t="s">
-        <v>344</v>
+        <v>127</v>
       </c>
       <c r="AV82" s="4">
-        <v>33.292817999999997</v>
+        <v>4.6520549999999998</v>
       </c>
       <c r="AW82" t="s">
         <v>69</v>
@@ -14480,25 +14471,25 @@
     </row>
     <row r="83" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>345</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>346</v>
+        <v>144</v>
       </c>
       <c r="C83" s="1">
-        <v>1.4570000000000001</v>
+        <v>8.375</v>
       </c>
       <c r="D83" s="2">
-        <v>57923</v>
+        <v>47077</v>
       </c>
       <c r="E83" s="2">
-        <v>39269</v>
+        <v>39772</v>
       </c>
       <c r="F83" t="s">
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="G83" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="H83" t="s">
         <v>53</v>
@@ -14516,10 +14507,10 @@
         <v>57</v>
       </c>
       <c r="M83" s="3">
-        <v>49999999.822889999</v>
+        <v>499999999.84272003</v>
       </c>
       <c r="N83" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="O83" t="s">
         <v>59</v>
@@ -14552,28 +14543,28 @@
         <v>62</v>
       </c>
       <c r="Y83" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z83" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AA83" t="s">
-        <v>348</v>
+        <v>75</v>
       </c>
       <c r="AB83" t="s">
         <v>19</v>
       </c>
-      <c r="AC83" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>19</v>
+      <c r="AC83" s="4">
+        <v>159.63736800000001</v>
+      </c>
+      <c r="AD83" s="4">
+        <v>0.63100000000000001</v>
       </c>
       <c r="AE83" t="s">
         <v>19</v>
       </c>
       <c r="AF83" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG83" t="s">
         <v>19</v>
@@ -14615,16 +14606,16 @@
         <v>62</v>
       </c>
       <c r="AT83" t="s">
-        <v>349</v>
+        <v>146</v>
       </c>
       <c r="AU83" t="s">
-        <v>350</v>
-      </c>
-      <c r="AV83" t="s">
-        <v>19</v>
+        <v>147</v>
+      </c>
+      <c r="AV83" s="4">
+        <v>5.819178</v>
       </c>
       <c r="AW83" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="AX83" t="s">
         <v>78</v>
@@ -14635,31 +14626,31 @@
     </row>
     <row r="84" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C84" s="1">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="D84" s="2">
-        <v>78186</v>
+        <v>50644</v>
       </c>
       <c r="E84" s="2">
-        <v>41662</v>
+        <v>39687</v>
       </c>
       <c r="F84" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
       <c r="G84" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="H84" t="s">
         <v>53</v>
       </c>
       <c r="I84" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="J84" t="s">
         <v>55</v>
@@ -14671,7 +14662,7 @@
         <v>57</v>
       </c>
       <c r="M84" s="3">
-        <v>1349999999.2525799</v>
+        <v>349999999.56713998</v>
       </c>
       <c r="N84" t="s">
         <v>58</v>
@@ -14692,7 +14683,7 @@
         <v>60</v>
       </c>
       <c r="T84" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U84" t="s">
         <v>61</v>
@@ -14719,16 +14710,16 @@
         <v>19</v>
       </c>
       <c r="AC84" s="4">
-        <v>272.65572100000003</v>
+        <v>160.08900399999999</v>
       </c>
       <c r="AD84" s="4">
-        <v>1.8480000000000001</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="AE84" t="s">
         <v>19</v>
       </c>
       <c r="AF84" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AG84" t="s">
         <v>19</v>
@@ -14758,7 +14749,7 @@
         <v>19</v>
       </c>
       <c r="AP84" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="AQ84" t="s">
         <v>19</v>
@@ -14770,13 +14761,13 @@
         <v>62</v>
       </c>
       <c r="AT84" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="AU84" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="AV84" s="4">
-        <v>90.994474999999994</v>
+        <v>15.586301000000001</v>
       </c>
       <c r="AW84" t="s">
         <v>69</v>
@@ -14790,25 +14781,25 @@
     </row>
     <row r="85" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>354</v>
+        <v>261</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="C85" s="1">
-        <v>9.07</v>
+        <v>6.875</v>
       </c>
       <c r="D85" s="2">
-        <v>46022</v>
+        <v>50875</v>
       </c>
       <c r="E85" s="2">
-        <v>37008</v>
+        <v>39918</v>
       </c>
       <c r="F85" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="G85" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="H85" t="s">
         <v>53</v>
@@ -14820,16 +14811,16 @@
         <v>55</v>
       </c>
       <c r="K85" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L85" t="s">
         <v>57</v>
       </c>
       <c r="M85" s="3">
-        <v>177799999.27013999</v>
+        <v>999999999.68544006</v>
       </c>
       <c r="N85" t="s">
-        <v>357</v>
+        <v>58</v>
       </c>
       <c r="O85" t="s">
         <v>59</v>
@@ -14847,7 +14838,7 @@
         <v>60</v>
       </c>
       <c r="T85" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U85" t="s">
         <v>61</v>
@@ -14862,10 +14853,10 @@
         <v>62</v>
       </c>
       <c r="Y85" t="s">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="Z85" t="s">
-        <v>359</v>
+        <v>86</v>
       </c>
       <c r="AA85" t="s">
         <v>75</v>
@@ -14873,11 +14864,11 @@
       <c r="AB85" t="s">
         <v>19</v>
       </c>
-      <c r="AC85" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>19</v>
+      <c r="AC85" s="4">
+        <v>127.23254</v>
+      </c>
+      <c r="AD85" s="4">
+        <v>1.214</v>
       </c>
       <c r="AE85" t="s">
         <v>19</v>
@@ -14913,7 +14904,7 @@
         <v>19</v>
       </c>
       <c r="AP85" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="AQ85" t="s">
         <v>19</v>
@@ -14925,28 +14916,33 @@
         <v>62</v>
       </c>
       <c r="AT85" t="s">
-        <v>360</v>
+        <v>264</v>
       </c>
       <c r="AU85" t="s">
-        <v>361</v>
-      </c>
-      <c r="AV85" t="s">
-        <v>19</v>
+        <v>265</v>
+      </c>
+      <c r="AV85" s="4">
+        <v>16.219177999999999</v>
       </c>
       <c r="AW85" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AX85" t="s">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AY85" t="s">
-        <v>363</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AY85" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AY85">
+      <sortCondition ref="A1:A85"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AZ1 A85:F85 A2:F2 H2:AZ2 A3:F3 H3:AZ3 A4:F4 H4:AZ4 A5:F5 H5:AZ5 A6:F6 H6:AZ6 A7:F7 H7:AZ7 A8:F8 H8:AZ8 A9:F9 H9:AZ9 A10:F10 H10:AZ10 A11:F11 H11:AZ11 A12:F12 H12:AZ12 A13:F13 H13:AZ13 A14:F14 H14:AZ14 A15:F15 H15:AZ15 A16:F16 H16:AZ16 A17:F17 H17:AZ17 A18:F18 H18:AZ18 A19:F19 H19:AZ19 A20:F20 H20:AZ20 A21:F21 H21:AZ21 A22:F22 H22:AZ22 A23:F23 H23:AZ23 A24:F24 H24:AZ24 A25:F25 H25:AZ25 A26:F26 H26:AZ26 A27:F27 H27:AZ27 A28:F28 H28:AZ28 A29:F29 H29:AZ29 A30:F30 H30:AZ30 A31:F31 H31:AZ31 A32:F32 H32:AZ32 A33:F33 H33:AZ33 A34:F34 H34:AZ34 A35:F35 H35:AZ35 A36:F36 H36:AZ36 A37:F37 H37:AZ37 A38:F38 H38:AZ38 A39:F39 H39:AZ39 A40:F40 H40:AZ40 A41:F41 H41:AZ41 A42:F42 H42:AZ42 A43:F43 H43:AZ43 A44:F44 H44:AZ44 A45:F45 H45:AZ45 A46:F46 H46:AZ46 A47:F47 H47:AZ47 A48:F48 H48:AZ48 A49:F49 H49:AZ49 A50:F50 H50:AZ50 A51:F51 H51:AZ51 A52:F52 H52:AZ52 A53:F53 H53:AZ53 A54:F54 H54:AZ54 A55:F55 H55:AZ55 A56:F56 H56:AZ56 A57:F57 H57:AZ57 A58:F58 H58:AZ58 A59:F59 H59:AZ59 A60:F60 H60:AZ60 A61:F61 H61:AZ61 A62:F62 H62:AZ62 A63:F63 H63:AZ63 A64:F64 H64:AZ64 A65:F65 H65:AZ65 A66:F66 H66:AZ66 A67:F67 H67:AZ67 A68:F68 H68:AZ68 A69:F69 H69:AZ69 A70:F70 H70:AZ70 A71:F71 H71:AZ71 A72:F72 H72:AZ72 A73:F73 H73:AZ73 A74:F74 H74:AZ74 A75:F75 H75:AZ75 A76:F76 H76:AZ76 A77:F77 H77:AZ77 A78:F78 H78:AZ78 A79:F79 H79:AZ79 A80:F80 H80:AZ80 A81:F81 H81:AZ81 A82:F82 H82:AZ82 A83:F83 H83:AZ83 A84:F84 H84:AZ84 H85:AZ85" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AZ1 AZ2 AZ3 AZ4 AZ5 AZ6 AZ7 AZ8 AZ9 AZ10 AZ11 AZ12 AZ13 AZ14 AZ15 AZ16 AZ17 AZ18 AZ19 AZ20 AZ21 AZ22 AZ23 AZ24 AZ25 AZ26 AZ27 AZ28 AZ29 AZ30 AZ31 AZ32 AZ33 AZ34 AZ35 AZ36 AZ37 AZ38 AZ39 AZ40 AZ41 AZ42 AZ43 AZ44 AZ45 AZ46 AZ47 AZ48 AZ49 AZ50 AZ51 AZ52 AZ53 AZ54 AZ55 AZ56 AZ57 AZ58 AZ59 AZ60 AZ61 AZ62 AZ63 AZ64 AZ65 AZ66 AZ67 AZ68 AZ69 AZ70 AZ71 AZ72 AZ73 AZ74 AZ75 AZ76 AZ77 AZ78 AZ79 AZ80 AZ81 AZ82 AZ83 AZ84 AZ85" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>